--- a/build/output_place/12월_키워드보고서_spogym011_naver.xlsx
+++ b/build/output_place/12월_키워드보고서_spogym011_naver.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="222">
   <si>
     <t>검색어 평균/합계 비교</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -800,247 +800,13 @@
     <t>광고그룹</t>
   </si>
   <si>
-    <t>서빙고필라테스</t>
+    <t>PC</t>
   </si>
   <si>
     <t>모바일</t>
   </si>
   <si>
-    <t>스포짐</t>
-  </si>
-  <si>
-    <t>약수동필라테스</t>
-  </si>
-  <si>
-    <t>약수역필라테스</t>
-  </si>
-  <si>
-    <t>약수필라테스</t>
-  </si>
-  <si>
-    <t>옥수동필라테스</t>
-  </si>
-  <si>
-    <t>옥수역필라테스</t>
-  </si>
-  <si>
-    <t>옥수필라테스</t>
-  </si>
-  <si>
-    <t>용산구필라테스</t>
-  </si>
-  <si>
-    <t>용산기구필라테스</t>
-  </si>
-  <si>
-    <t>용산역필라테스</t>
-  </si>
-  <si>
-    <t>용산필라테스</t>
-  </si>
-  <si>
-    <t>이촌동필라테스</t>
-  </si>
-  <si>
-    <t>이태원필라테스</t>
-  </si>
-  <si>
-    <t>한남동필라테스</t>
-  </si>
-  <si>
-    <t>한남필라테스</t>
-  </si>
-  <si>
-    <t>금호동필라테스</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>보광동필라테스</t>
-  </si>
-  <si>
-    <t>이촌필라테스</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>금호동피티</t>
-  </si>
-  <si>
-    <t>금호동헬스</t>
-  </si>
-  <si>
-    <t>금호동헬스장</t>
-  </si>
-  <si>
-    <t>금호역PT</t>
-  </si>
-  <si>
-    <t>금호역헬스</t>
-  </si>
-  <si>
-    <t>보광동PT</t>
-  </si>
-  <si>
-    <t>보광동헬스</t>
-  </si>
-  <si>
-    <t>보광동헬스장</t>
-  </si>
-  <si>
-    <t>스포짐한남</t>
-  </si>
-  <si>
-    <t>약수PT</t>
-  </si>
-  <si>
-    <t>약수동헬스</t>
-  </si>
-  <si>
-    <t>약수역PT</t>
-  </si>
-  <si>
-    <t>약수역피티</t>
-  </si>
-  <si>
-    <t>약수역헬스</t>
-  </si>
-  <si>
-    <t>약수역헬스장</t>
-  </si>
-  <si>
-    <t>약수피티</t>
-  </si>
-  <si>
-    <t>약수헬스장</t>
-  </si>
-  <si>
-    <t>옥수동PT</t>
-  </si>
-  <si>
-    <t>옥수동피티</t>
-  </si>
-  <si>
-    <t>옥수동헬스장</t>
-  </si>
-  <si>
-    <t>용산PT</t>
-  </si>
-  <si>
-    <t>용산구PT</t>
-  </si>
-  <si>
-    <t>용산구헬스</t>
-  </si>
-  <si>
-    <t>용산구헬스장</t>
-  </si>
-  <si>
-    <t>용산스포짐</t>
-  </si>
-  <si>
-    <t>용산역PT</t>
-  </si>
-  <si>
-    <t>용산역헬스</t>
-  </si>
-  <si>
-    <t>용산역헬스장</t>
-  </si>
-  <si>
-    <t>용산운동</t>
-  </si>
-  <si>
-    <t>용산피트니스</t>
-  </si>
-  <si>
-    <t>용산피티</t>
-  </si>
-  <si>
-    <t>용산헬스</t>
-  </si>
-  <si>
-    <t>용산헬스장</t>
-  </si>
-  <si>
-    <t>용산휘트니스</t>
-  </si>
-  <si>
-    <t>이촌동PT</t>
-  </si>
-  <si>
-    <t>이촌동헬스</t>
-  </si>
-  <si>
-    <t>이촌동헬스장</t>
-  </si>
-  <si>
-    <t>이촌헬스</t>
-  </si>
-  <si>
-    <t>이태원PT</t>
-  </si>
-  <si>
-    <t>이태원피티</t>
-  </si>
-  <si>
-    <t>이태원헬스</t>
-  </si>
-  <si>
-    <t>이태원헬스장</t>
-  </si>
-  <si>
-    <t>잠원동헬스</t>
-  </si>
-  <si>
-    <t>잠원동헬스장</t>
-  </si>
-  <si>
-    <t>한남동PT</t>
-  </si>
-  <si>
-    <t>한남동다이어트</t>
-  </si>
-  <si>
-    <t>한남동운동</t>
-  </si>
-  <si>
-    <t>한남동피트니스</t>
-  </si>
-  <si>
-    <t>한남동피티</t>
-  </si>
-  <si>
-    <t>한남동헬스</t>
-  </si>
-  <si>
-    <t>한남동헬스장</t>
-  </si>
-  <si>
-    <t>한남사우나</t>
-  </si>
-  <si>
-    <t>한남오거리헬스장</t>
-  </si>
-  <si>
-    <t>한남헬스</t>
-  </si>
-  <si>
-    <t>한남헬스장</t>
-  </si>
-  <si>
-    <t>약수헬스</t>
-  </si>
-  <si>
-    <t>용산스피닝</t>
-  </si>
-  <si>
-    <t>이촌동피티</t>
-  </si>
-  <si>
-    <t>잠원동GX</t>
+    <t>2024.12.01.</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +825,7 @@
     <numFmt numFmtId="182" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="183" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1351,6 +1117,11 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1652,7 +1423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2122,6 +1893,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="백분율" xfId="4" builtinId="5"/>
@@ -14858,6 +14630,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO29" t="s" s="147">
+        <v>152</v>
+      </c>
+      <c r="AP29" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ29" t="n" s="147">
+        <v>421.0</v>
+      </c>
+      <c r="AR29" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AS29" t="n" s="147">
+        <v>1.19</v>
+      </c>
+      <c r="AT29" t="n" s="147">
+        <v>2581.0</v>
+      </c>
+      <c r="AU29" t="n" s="147">
+        <v>12903.0</v>
+      </c>
+      <c r="AV29" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW29" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A30" s="103" t="s">
@@ -15006,6 +14805,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO30" t="s" s="147">
+        <v>152</v>
+      </c>
+      <c r="AP30" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ30" t="n" s="147">
+        <v>667.0</v>
+      </c>
+      <c r="AR30" t="n" s="147">
+        <v>7.0</v>
+      </c>
+      <c r="AS30" t="n" s="147">
+        <v>1.05</v>
+      </c>
+      <c r="AT30" t="n" s="147">
+        <v>2829.0</v>
+      </c>
+      <c r="AU30" t="n" s="147">
+        <v>19800.0</v>
+      </c>
+      <c r="AV30" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW30" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A31" s="103" t="s">
@@ -15154,6 +14980,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO31" t="s" s="147">
+        <v>153</v>
+      </c>
+      <c r="AP31" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ31" t="n" s="147">
+        <v>792.0</v>
+      </c>
+      <c r="AR31" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS31" t="n" s="147">
+        <v>0.26</v>
+      </c>
+      <c r="AT31" t="n" s="147">
+        <v>3135.0</v>
+      </c>
+      <c r="AU31" t="n" s="147">
+        <v>6270.0</v>
+      </c>
+      <c r="AV31" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW31" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A32" s="103" t="s">
@@ -15302,6 +15155,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO32" t="s" s="147">
+        <v>153</v>
+      </c>
+      <c r="AP32" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ32" t="n" s="147">
+        <v>990.0</v>
+      </c>
+      <c r="AR32" t="n" s="147">
+        <v>18.0</v>
+      </c>
+      <c r="AS32" t="n" s="147">
+        <v>1.82</v>
+      </c>
+      <c r="AT32" t="n" s="147">
+        <v>4088.0</v>
+      </c>
+      <c r="AU32" t="n" s="147">
+        <v>73579.0</v>
+      </c>
+      <c r="AV32" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW32" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="103" t="s">
@@ -15450,6 +15330,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO33" t="s" s="147">
+        <v>154</v>
+      </c>
+      <c r="AP33" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ33" t="n" s="147">
+        <v>1017.0</v>
+      </c>
+      <c r="AR33" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AS33" t="n" s="147">
+        <v>0.5</v>
+      </c>
+      <c r="AT33" t="n" s="147">
+        <v>3258.0</v>
+      </c>
+      <c r="AU33" t="n" s="147">
+        <v>16291.0</v>
+      </c>
+      <c r="AV33" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW33" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="103" t="s">
@@ -15598,6 +15505,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO34" t="s" s="147">
+        <v>154</v>
+      </c>
+      <c r="AP34" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ34" t="n" s="147">
+        <v>661.0</v>
+      </c>
+      <c r="AR34" t="n" s="147">
+        <v>14.0</v>
+      </c>
+      <c r="AS34" t="n" s="147">
+        <v>2.12</v>
+      </c>
+      <c r="AT34" t="n" s="147">
+        <v>3137.0</v>
+      </c>
+      <c r="AU34" t="n" s="147">
+        <v>43912.0</v>
+      </c>
+      <c r="AV34" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW34" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="103" t="s">
@@ -15746,6 +15680,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO35" t="s" s="147">
+        <v>155</v>
+      </c>
+      <c r="AP35" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ35" t="n" s="147">
+        <v>1632.0</v>
+      </c>
+      <c r="AR35" t="n" s="147">
+        <v>7.0</v>
+      </c>
+      <c r="AS35" t="n" s="147">
+        <v>0.43</v>
+      </c>
+      <c r="AT35" t="n" s="147">
+        <v>3416.0</v>
+      </c>
+      <c r="AU35" t="n" s="147">
+        <v>23914.0</v>
+      </c>
+      <c r="AV35" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW35" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" s="103" t="s">
@@ -15894,6 +15855,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO36" t="s" s="147">
+        <v>155</v>
+      </c>
+      <c r="AP36" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ36" t="n" s="147">
+        <v>675.0</v>
+      </c>
+      <c r="AR36" t="n" s="147">
+        <v>15.0</v>
+      </c>
+      <c r="AS36" t="n" s="147">
+        <v>2.23</v>
+      </c>
+      <c r="AT36" t="n" s="147">
+        <v>2570.0</v>
+      </c>
+      <c r="AU36" t="n" s="147">
+        <v>38544.0</v>
+      </c>
+      <c r="AV36" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW36" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="103" t="s">
@@ -16042,6 +16030,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO37" t="s" s="147">
+        <v>156</v>
+      </c>
+      <c r="AP37" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ37" t="n" s="147">
+        <v>1899.0</v>
+      </c>
+      <c r="AR37" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AS37" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AT37" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AU37" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AV37" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW37" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="103" t="s">
@@ -16190,6 +16205,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO38" t="s" s="147">
+        <v>156</v>
+      </c>
+      <c r="AP38" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ38" t="n" s="147">
+        <v>907.0</v>
+      </c>
+      <c r="AR38" t="n" s="147">
+        <v>13.0</v>
+      </c>
+      <c r="AS38" t="n" s="147">
+        <v>1.44</v>
+      </c>
+      <c r="AT38" t="n" s="147">
+        <v>3415.0</v>
+      </c>
+      <c r="AU38" t="n" s="147">
+        <v>44396.0</v>
+      </c>
+      <c r="AV38" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW38" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="103" t="s">
@@ -16338,6 +16380,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO39" t="s" s="147">
+        <v>157</v>
+      </c>
+      <c r="AP39" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ39" t="n" s="147">
+        <v>612.0</v>
+      </c>
+      <c r="AR39" t="n" s="147">
+        <v>1.0</v>
+      </c>
+      <c r="AS39" t="n" s="147">
+        <v>0.17</v>
+      </c>
+      <c r="AT39" t="n" s="147">
+        <v>1573.0</v>
+      </c>
+      <c r="AU39" t="n" s="147">
+        <v>1573.0</v>
+      </c>
+      <c r="AV39" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW39" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="103" t="s">
@@ -16486,6 +16555,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO40" t="s" s="147">
+        <v>157</v>
+      </c>
+      <c r="AP40" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ40" t="n" s="147">
+        <v>995.0</v>
+      </c>
+      <c r="AR40" t="n" s="147">
+        <v>18.0</v>
+      </c>
+      <c r="AS40" t="n" s="147">
+        <v>1.81</v>
+      </c>
+      <c r="AT40" t="n" s="147">
+        <v>2954.0</v>
+      </c>
+      <c r="AU40" t="n" s="147">
+        <v>53174.0</v>
+      </c>
+      <c r="AV40" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW40" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="103" t="s">
@@ -16634,6 +16730,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO41" t="s" s="147">
+        <v>158</v>
+      </c>
+      <c r="AP41" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ41" t="n" s="147">
+        <v>140.0</v>
+      </c>
+      <c r="AR41" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS41" t="n" s="147">
+        <v>1.43</v>
+      </c>
+      <c r="AT41" t="n" s="147">
+        <v>1595.0</v>
+      </c>
+      <c r="AU41" t="n" s="147">
+        <v>3190.0</v>
+      </c>
+      <c r="AV41" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW41" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" s="103" t="s">
@@ -16782,6 +16905,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO42" t="s" s="147">
+        <v>158</v>
+      </c>
+      <c r="AP42" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ42" t="n" s="147">
+        <v>406.0</v>
+      </c>
+      <c r="AR42" t="n" s="147">
+        <v>16.0</v>
+      </c>
+      <c r="AS42" t="n" s="147">
+        <v>3.95</v>
+      </c>
+      <c r="AT42" t="n" s="147">
+        <v>2943.0</v>
+      </c>
+      <c r="AU42" t="n" s="147">
+        <v>47080.0</v>
+      </c>
+      <c r="AV42" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW42" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" s="103" t="s">
@@ -16930,6 +17080,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO43" t="s" s="147">
+        <v>159</v>
+      </c>
+      <c r="AP43" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ43" t="n" s="147">
+        <v>699.0</v>
+      </c>
+      <c r="AR43" t="n" s="147">
+        <v>8.0</v>
+      </c>
+      <c r="AS43" t="n" s="147">
+        <v>1.15</v>
+      </c>
+      <c r="AT43" t="n" s="147">
+        <v>3088.0</v>
+      </c>
+      <c r="AU43" t="n" s="147">
+        <v>24706.0</v>
+      </c>
+      <c r="AV43" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW43" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" s="103" t="s">
@@ -17078,6 +17255,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO44" t="s" s="147">
+        <v>159</v>
+      </c>
+      <c r="AP44" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ44" t="n" s="147">
+        <v>523.0</v>
+      </c>
+      <c r="AR44" t="n" s="147">
+        <v>12.0</v>
+      </c>
+      <c r="AS44" t="n" s="147">
+        <v>2.3</v>
+      </c>
+      <c r="AT44" t="n" s="147">
+        <v>2457.0</v>
+      </c>
+      <c r="AU44" t="n" s="147">
+        <v>29480.0</v>
+      </c>
+      <c r="AV44" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW44" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" s="103" t="s">
@@ -17226,6 +17430,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO45" t="s" s="147">
+        <v>160</v>
+      </c>
+      <c r="AP45" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ45" t="n" s="147">
+        <v>1510.0</v>
+      </c>
+      <c r="AR45" t="n" s="147">
+        <v>11.0</v>
+      </c>
+      <c r="AS45" t="n" s="147">
+        <v>0.73</v>
+      </c>
+      <c r="AT45" t="n" s="147">
+        <v>2401.0</v>
+      </c>
+      <c r="AU45" t="n" s="147">
+        <v>26411.0</v>
+      </c>
+      <c r="AV45" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW45" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" s="103" t="s">
@@ -17374,6 +17605,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO46" t="s" s="147">
+        <v>160</v>
+      </c>
+      <c r="AP46" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ46" t="n" s="147">
+        <v>638.0</v>
+      </c>
+      <c r="AR46" t="n" s="147">
+        <v>9.0</v>
+      </c>
+      <c r="AS46" t="n" s="147">
+        <v>1.42</v>
+      </c>
+      <c r="AT46" t="n" s="147">
+        <v>3354.0</v>
+      </c>
+      <c r="AU46" t="n" s="147">
+        <v>30184.0</v>
+      </c>
+      <c r="AV46" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW46" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" s="103" t="s">
@@ -17522,6 +17780,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO47" t="s" s="147">
+        <v>161</v>
+      </c>
+      <c r="AP47" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ47" t="n" s="147">
+        <v>1455.0</v>
+      </c>
+      <c r="AR47" t="n" s="147">
+        <v>6.0</v>
+      </c>
+      <c r="AS47" t="n" s="147">
+        <v>0.42</v>
+      </c>
+      <c r="AT47" t="n" s="147">
+        <v>3604.0</v>
+      </c>
+      <c r="AU47" t="n" s="147">
+        <v>21626.55</v>
+      </c>
+      <c r="AV47" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW47" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" s="103" t="s">
@@ -17670,6 +17955,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO48" t="s" s="147">
+        <v>161</v>
+      </c>
+      <c r="AP48" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ48" t="n" s="147">
+        <v>779.0</v>
+      </c>
+      <c r="AR48" t="n" s="147">
+        <v>11.0</v>
+      </c>
+      <c r="AS48" t="n" s="147">
+        <v>1.42</v>
+      </c>
+      <c r="AT48" t="n" s="147">
+        <v>2428.0</v>
+      </c>
+      <c r="AU48" t="n" s="147">
+        <v>26710.75</v>
+      </c>
+      <c r="AV48" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW48" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="103" t="s">
@@ -17818,6 +18130,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO49" t="s" s="147">
+        <v>162</v>
+      </c>
+      <c r="AP49" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ49" t="n" s="147">
+        <v>957.0</v>
+      </c>
+      <c r="AR49" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS49" t="n" s="147">
+        <v>0.42</v>
+      </c>
+      <c r="AT49" t="n" s="147">
+        <v>2684.0</v>
+      </c>
+      <c r="AU49" t="n" s="147">
+        <v>10736.55</v>
+      </c>
+      <c r="AV49" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW49" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" s="103" t="s">
@@ -17966,6 +18305,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO50" t="s" s="147">
+        <v>162</v>
+      </c>
+      <c r="AP50" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ50" t="n" s="147">
+        <v>783.0</v>
+      </c>
+      <c r="AR50" t="n" s="147">
+        <v>7.0</v>
+      </c>
+      <c r="AS50" t="n" s="147">
+        <v>0.9</v>
+      </c>
+      <c r="AT50" t="n" s="147">
+        <v>4829.0</v>
+      </c>
+      <c r="AU50" t="n" s="147">
+        <v>33806.3</v>
+      </c>
+      <c r="AV50" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW50" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" s="103" t="s">
@@ -18114,6 +18480,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO51" t="s" s="147">
+        <v>163</v>
+      </c>
+      <c r="AP51" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ51" t="n" s="147">
+        <v>393.0</v>
+      </c>
+      <c r="AR51" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS51" t="n" s="147">
+        <v>0.51</v>
+      </c>
+      <c r="AT51" t="n" s="147">
+        <v>2635.0</v>
+      </c>
+      <c r="AU51" t="n" s="147">
+        <v>5269.0</v>
+      </c>
+      <c r="AV51" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW51" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" s="103" t="s">
@@ -18262,6 +18655,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO52" t="s" s="147">
+        <v>163</v>
+      </c>
+      <c r="AP52" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ52" t="n" s="147">
+        <v>661.0</v>
+      </c>
+      <c r="AR52" t="n" s="147">
+        <v>15.0</v>
+      </c>
+      <c r="AS52" t="n" s="147">
+        <v>2.27</v>
+      </c>
+      <c r="AT52" t="n" s="147">
+        <v>2246.0</v>
+      </c>
+      <c r="AU52" t="n" s="147">
+        <v>33688.05</v>
+      </c>
+      <c r="AV52" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW52" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" s="103" t="s">
@@ -18410,6 +18830,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO53" t="s" s="147">
+        <v>164</v>
+      </c>
+      <c r="AP53" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ53" t="n" s="147">
+        <v>550.0</v>
+      </c>
+      <c r="AR53" t="n" s="147">
+        <v>3.0</v>
+      </c>
+      <c r="AS53" t="n" s="147">
+        <v>0.55</v>
+      </c>
+      <c r="AT53" t="n" s="147">
+        <v>2596.0</v>
+      </c>
+      <c r="AU53" t="n" s="147">
+        <v>7788.0</v>
+      </c>
+      <c r="AV53" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW53" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" s="103" t="s">
@@ -18558,6 +19005,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO54" t="s" s="147">
+        <v>164</v>
+      </c>
+      <c r="AP54" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ54" t="n" s="147">
+        <v>1491.0</v>
+      </c>
+      <c r="AR54" t="n" s="147">
+        <v>11.0</v>
+      </c>
+      <c r="AS54" t="n" s="147">
+        <v>0.74</v>
+      </c>
+      <c r="AT54" t="n" s="147">
+        <v>2768.0</v>
+      </c>
+      <c r="AU54" t="n" s="147">
+        <v>30448.55</v>
+      </c>
+      <c r="AV54" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW54" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" s="103" t="s">
@@ -18706,6 +19180,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO55" t="s" s="147">
+        <v>165</v>
+      </c>
+      <c r="AP55" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ55" t="n" s="147">
+        <v>83.0</v>
+      </c>
+      <c r="AR55" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS55" t="n" s="147">
+        <v>2.41</v>
+      </c>
+      <c r="AT55" t="n" s="147">
+        <v>2739.0</v>
+      </c>
+      <c r="AU55" t="n" s="147">
+        <v>5478.0</v>
+      </c>
+      <c r="AV55" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW55" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" s="103" t="s">
@@ -18854,6 +19355,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO56" t="s" s="147">
+        <v>165</v>
+      </c>
+      <c r="AP56" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ56" t="n" s="147">
+        <v>515.0</v>
+      </c>
+      <c r="AR56" t="n" s="147">
+        <v>11.0</v>
+      </c>
+      <c r="AS56" t="n" s="147">
+        <v>2.14</v>
+      </c>
+      <c r="AT56" t="n" s="147">
+        <v>3649.0</v>
+      </c>
+      <c r="AU56" t="n" s="147">
+        <v>40143.4</v>
+      </c>
+      <c r="AV56" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW56" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" s="103" t="s">
@@ -19002,6 +19530,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO57" t="s" s="147">
+        <v>166</v>
+      </c>
+      <c r="AP57" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ57" t="n" s="147">
+        <v>344.0</v>
+      </c>
+      <c r="AR57" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS57" t="n" s="147">
+        <v>0.59</v>
+      </c>
+      <c r="AT57" t="n" s="147">
+        <v>2195.0</v>
+      </c>
+      <c r="AU57" t="n" s="147">
+        <v>4389.0</v>
+      </c>
+      <c r="AV57" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW57" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" s="103" t="s">
@@ -19150,6 +19705,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO58" t="s" s="147">
+        <v>166</v>
+      </c>
+      <c r="AP58" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ58" t="n" s="147">
+        <v>617.0</v>
+      </c>
+      <c r="AR58" t="n" s="147">
+        <v>9.0</v>
+      </c>
+      <c r="AS58" t="n" s="147">
+        <v>1.46</v>
+      </c>
+      <c r="AT58" t="n" s="147">
+        <v>4105.0</v>
+      </c>
+      <c r="AU58" t="n" s="147">
+        <v>36941.3</v>
+      </c>
+      <c r="AV58" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW58" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" s="103" t="s">
@@ -19298,6 +19880,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO59" t="s" s="147">
+        <v>167</v>
+      </c>
+      <c r="AP59" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ59" t="n" s="147">
+        <v>909.0</v>
+      </c>
+      <c r="AR59" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AS59" t="n" s="147">
+        <v>0.56</v>
+      </c>
+      <c r="AT59" t="n" s="147">
+        <v>1399.0</v>
+      </c>
+      <c r="AU59" t="n" s="147">
+        <v>6996.0</v>
+      </c>
+      <c r="AV59" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW59" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60" s="103" t="s">
@@ -19446,6 +20055,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO60" t="s" s="147">
+        <v>167</v>
+      </c>
+      <c r="AP60" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ60" t="n" s="147">
+        <v>674.0</v>
+      </c>
+      <c r="AR60" t="n" s="147">
+        <v>13.0</v>
+      </c>
+      <c r="AS60" t="n" s="147">
+        <v>1.93</v>
+      </c>
+      <c r="AT60" t="n" s="147">
+        <v>2798.0</v>
+      </c>
+      <c r="AU60" t="n" s="147">
+        <v>36370.4</v>
+      </c>
+      <c r="AV60" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW60" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61" s="103" t="s">
@@ -19594,6 +20230,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO61" t="s" s="147">
+        <v>168</v>
+      </c>
+      <c r="AP61" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ61" t="n" s="147">
+        <v>577.0</v>
+      </c>
+      <c r="AR61" t="n" s="147">
+        <v>1.0</v>
+      </c>
+      <c r="AS61" t="n" s="147">
+        <v>0.18</v>
+      </c>
+      <c r="AT61" t="n" s="147">
+        <v>2938.0</v>
+      </c>
+      <c r="AU61" t="n" s="147">
+        <v>2937.55</v>
+      </c>
+      <c r="AV61" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW61" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" s="103" t="s">
@@ -19742,6 +20405,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO62" t="s" s="147">
+        <v>168</v>
+      </c>
+      <c r="AP62" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ62" t="n" s="147">
+        <v>631.0</v>
+      </c>
+      <c r="AR62" t="n" s="147">
+        <v>10.0</v>
+      </c>
+      <c r="AS62" t="n" s="147">
+        <v>1.59</v>
+      </c>
+      <c r="AT62" t="n" s="147">
+        <v>3835.0</v>
+      </c>
+      <c r="AU62" t="n" s="147">
+        <v>38349.85</v>
+      </c>
+      <c r="AV62" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW62" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A63" s="103" t="s">
@@ -19890,6 +20580,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO63" t="s" s="147">
+        <v>169</v>
+      </c>
+      <c r="AP63" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ63" t="n" s="147">
+        <v>747.0</v>
+      </c>
+      <c r="AR63" t="n" s="147">
+        <v>3.0</v>
+      </c>
+      <c r="AS63" t="n" s="147">
+        <v>0.41</v>
+      </c>
+      <c r="AT63" t="n" s="147">
+        <v>2486.0</v>
+      </c>
+      <c r="AU63" t="n" s="147">
+        <v>7458.55</v>
+      </c>
+      <c r="AV63" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW63" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" s="103" t="s">
@@ -20038,6 +20755,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO64" t="s" s="147">
+        <v>169</v>
+      </c>
+      <c r="AP64" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ64" t="n" s="147">
+        <v>955.0</v>
+      </c>
+      <c r="AR64" t="n" s="147">
+        <v>14.0</v>
+      </c>
+      <c r="AS64" t="n" s="147">
+        <v>1.47</v>
+      </c>
+      <c r="AT64" t="n" s="147">
+        <v>3034.0</v>
+      </c>
+      <c r="AU64" t="n" s="147">
+        <v>42469.35</v>
+      </c>
+      <c r="AV64" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW64" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" s="103" t="s">
@@ -20186,6 +20930,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO65" t="s" s="147">
+        <v>170</v>
+      </c>
+      <c r="AP65" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ65" t="n" s="147">
+        <v>79.0</v>
+      </c>
+      <c r="AR65" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AS65" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AT65" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AU65" t="n" s="147">
+        <v>0.55</v>
+      </c>
+      <c r="AV65" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW65" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" s="103" t="s">
@@ -20334,6 +21105,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO66" t="s" s="147">
+        <v>170</v>
+      </c>
+      <c r="AP66" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ66" t="n" s="147">
+        <v>401.0</v>
+      </c>
+      <c r="AR66" t="n" s="147">
+        <v>12.0</v>
+      </c>
+      <c r="AS66" t="n" s="147">
+        <v>3.0</v>
+      </c>
+      <c r="AT66" t="n" s="147">
+        <v>3614.0</v>
+      </c>
+      <c r="AU66" t="n" s="147">
+        <v>43363.65</v>
+      </c>
+      <c r="AV66" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW66" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67" s="103" t="s">
@@ -20482,6 +21280,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO67" t="s" s="147">
+        <v>171</v>
+      </c>
+      <c r="AP67" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ67" t="n" s="147">
+        <v>154.0</v>
+      </c>
+      <c r="AR67" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS67" t="n" s="147">
+        <v>1.3</v>
+      </c>
+      <c r="AT67" t="n" s="147">
+        <v>2723.0</v>
+      </c>
+      <c r="AU67" t="n" s="147">
+        <v>5445.0</v>
+      </c>
+      <c r="AV67" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW67" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68" s="103" t="s">
@@ -20630,6 +21455,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO68" t="s" s="147">
+        <v>171</v>
+      </c>
+      <c r="AP68" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ68" t="n" s="147">
+        <v>690.0</v>
+      </c>
+      <c r="AR68" t="n" s="147">
+        <v>12.0</v>
+      </c>
+      <c r="AS68" t="n" s="147">
+        <v>1.74</v>
+      </c>
+      <c r="AT68" t="n" s="147">
+        <v>3694.0</v>
+      </c>
+      <c r="AU68" t="n" s="147">
+        <v>44331.65</v>
+      </c>
+      <c r="AV68" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW68" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69" s="103" t="s">
@@ -20778,6 +21630,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO69" t="s" s="147">
+        <v>172</v>
+      </c>
+      <c r="AP69" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ69" t="n" s="147">
+        <v>406.0</v>
+      </c>
+      <c r="AR69" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS69" t="n" s="147">
+        <v>0.5</v>
+      </c>
+      <c r="AT69" t="n" s="147">
+        <v>2365.0</v>
+      </c>
+      <c r="AU69" t="n" s="147">
+        <v>4730.0</v>
+      </c>
+      <c r="AV69" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW69" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A70" s="103" t="s">
@@ -20926,6 +21805,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO70" t="s" s="147">
+        <v>172</v>
+      </c>
+      <c r="AP70" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ70" t="n" s="147">
+        <v>1210.0</v>
+      </c>
+      <c r="AR70" t="n" s="147">
+        <v>14.0</v>
+      </c>
+      <c r="AS70" t="n" s="147">
+        <v>1.16</v>
+      </c>
+      <c r="AT70" t="n" s="147">
+        <v>2580.0</v>
+      </c>
+      <c r="AU70" t="n" s="147">
+        <v>36113.0</v>
+      </c>
+      <c r="AV70" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW70" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A71" s="103" t="s">
@@ -21074,6 +21980,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO71" t="s" s="147">
+        <v>173</v>
+      </c>
+      <c r="AP71" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ71" t="n" s="147">
+        <v>1662.0</v>
+      </c>
+      <c r="AR71" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS71" t="n" s="147">
+        <v>0.25</v>
+      </c>
+      <c r="AT71" t="n" s="147">
+        <v>2989.0</v>
+      </c>
+      <c r="AU71" t="n" s="147">
+        <v>11957.0</v>
+      </c>
+      <c r="AV71" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW71" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A72" s="103" t="s">
@@ -21222,6 +22155,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO72" t="s" s="147">
+        <v>173</v>
+      </c>
+      <c r="AP72" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ72" t="n" s="147">
+        <v>1389.0</v>
+      </c>
+      <c r="AR72" t="n" s="147">
+        <v>13.0</v>
+      </c>
+      <c r="AS72" t="n" s="147">
+        <v>0.94</v>
+      </c>
+      <c r="AT72" t="n" s="147">
+        <v>2799.0</v>
+      </c>
+      <c r="AU72" t="n" s="147">
+        <v>36391.3</v>
+      </c>
+      <c r="AV72" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW72" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" s="103" t="s">
@@ -21370,6 +22330,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO73" t="s" s="147">
+        <v>174</v>
+      </c>
+      <c r="AP73" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ73" t="n" s="147">
+        <v>1112.0</v>
+      </c>
+      <c r="AR73" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS73" t="n" s="147">
+        <v>0.18</v>
+      </c>
+      <c r="AT73" t="n" s="147">
+        <v>4697.0</v>
+      </c>
+      <c r="AU73" t="n" s="147">
+        <v>9394.0</v>
+      </c>
+      <c r="AV73" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW73" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A74" s="103" t="s">
@@ -21518,6 +22505,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO74" t="s" s="147">
+        <v>174</v>
+      </c>
+      <c r="AP74" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ74" t="n" s="147">
+        <v>878.0</v>
+      </c>
+      <c r="AR74" t="n" s="147">
+        <v>12.0</v>
+      </c>
+      <c r="AS74" t="n" s="147">
+        <v>1.37</v>
+      </c>
+      <c r="AT74" t="n" s="147">
+        <v>3057.0</v>
+      </c>
+      <c r="AU74" t="n" s="147">
+        <v>36683.35</v>
+      </c>
+      <c r="AV74" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW74" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A75" s="103" t="s">
@@ -21666,6 +22680,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO75" t="s" s="147">
+        <v>175</v>
+      </c>
+      <c r="AP75" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ75" t="n" s="147">
+        <v>1467.0</v>
+      </c>
+      <c r="AR75" t="n" s="147">
+        <v>7.0</v>
+      </c>
+      <c r="AS75" t="n" s="147">
+        <v>0.48</v>
+      </c>
+      <c r="AT75" t="n" s="147">
+        <v>3121.0</v>
+      </c>
+      <c r="AU75" t="n" s="147">
+        <v>21846.0</v>
+      </c>
+      <c r="AV75" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW75" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A76" s="103" t="s">
@@ -21814,6 +22855,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO76" t="s" s="147">
+        <v>175</v>
+      </c>
+      <c r="AP76" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ76" t="n" s="147">
+        <v>1025.0</v>
+      </c>
+      <c r="AR76" t="n" s="147">
+        <v>9.0</v>
+      </c>
+      <c r="AS76" t="n" s="147">
+        <v>0.88</v>
+      </c>
+      <c r="AT76" t="n" s="147">
+        <v>2110.0</v>
+      </c>
+      <c r="AU76" t="n" s="147">
+        <v>18989.85</v>
+      </c>
+      <c r="AV76" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW76" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77" s="103" t="s">
@@ -21962,6 +23030,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO77" t="s" s="147">
+        <v>176</v>
+      </c>
+      <c r="AP77" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ77" t="n" s="147">
+        <v>367.0</v>
+      </c>
+      <c r="AR77" t="n" s="147">
+        <v>3.0</v>
+      </c>
+      <c r="AS77" t="n" s="147">
+        <v>0.82</v>
+      </c>
+      <c r="AT77" t="n" s="147">
+        <v>3205.0</v>
+      </c>
+      <c r="AU77" t="n" s="147">
+        <v>9614.0</v>
+      </c>
+      <c r="AV77" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW77" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A78" s="103" t="s">
@@ -22110,6 +23205,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO78" t="s" s="147">
+        <v>176</v>
+      </c>
+      <c r="AP78" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ78" t="n" s="147">
+        <v>545.0</v>
+      </c>
+      <c r="AR78" t="n" s="147">
+        <v>12.0</v>
+      </c>
+      <c r="AS78" t="n" s="147">
+        <v>2.21</v>
+      </c>
+      <c r="AT78" t="n" s="147">
+        <v>4002.0</v>
+      </c>
+      <c r="AU78" t="n" s="147">
+        <v>48022.7</v>
+      </c>
+      <c r="AV78" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW78" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" s="103" t="s">
@@ -22258,6 +23380,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO79" t="s" s="147">
+        <v>177</v>
+      </c>
+      <c r="AP79" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ79" t="n" s="147">
+        <v>1077.0</v>
+      </c>
+      <c r="AR79" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS79" t="n" s="147">
+        <v>0.19</v>
+      </c>
+      <c r="AT79" t="n" s="147">
+        <v>2261.0</v>
+      </c>
+      <c r="AU79" t="n" s="147">
+        <v>4521.0</v>
+      </c>
+      <c r="AV79" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW79" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A80" s="103" t="s">
@@ -22406,6 +23555,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO80" t="s" s="147">
+        <v>177</v>
+      </c>
+      <c r="AP80" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ80" t="n" s="147">
+        <v>853.0</v>
+      </c>
+      <c r="AR80" t="n" s="147">
+        <v>16.0</v>
+      </c>
+      <c r="AS80" t="n" s="147">
+        <v>1.88</v>
+      </c>
+      <c r="AT80" t="n" s="147">
+        <v>3100.0</v>
+      </c>
+      <c r="AU80" t="n" s="147">
+        <v>49602.85</v>
+      </c>
+      <c r="AV80" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW80" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="81" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A81" s="103" t="s">
@@ -22554,6 +23730,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO81" t="s" s="147">
+        <v>178</v>
+      </c>
+      <c r="AP81" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ81" t="n" s="147">
+        <v>150.0</v>
+      </c>
+      <c r="AR81" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS81" t="n" s="147">
+        <v>1.34</v>
+      </c>
+      <c r="AT81" t="n" s="147">
+        <v>2772.0</v>
+      </c>
+      <c r="AU81" t="n" s="147">
+        <v>5544.0</v>
+      </c>
+      <c r="AV81" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW81" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="82" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A82" s="103" t="s">
@@ -22702,6 +23905,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO82" t="s" s="147">
+        <v>178</v>
+      </c>
+      <c r="AP82" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ82" t="n" s="147">
+        <v>723.0</v>
+      </c>
+      <c r="AR82" t="n" s="147">
+        <v>12.0</v>
+      </c>
+      <c r="AS82" t="n" s="147">
+        <v>1.66</v>
+      </c>
+      <c r="AT82" t="n" s="147">
+        <v>3150.0</v>
+      </c>
+      <c r="AU82" t="n" s="147">
+        <v>37802.05</v>
+      </c>
+      <c r="AV82" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW82" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A83" s="103" t="s">
@@ -22850,6 +24080,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO83" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AP83" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ83" t="n" s="147">
+        <v>328.0</v>
+      </c>
+      <c r="AR83" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS83" t="n" s="147">
+        <v>0.61</v>
+      </c>
+      <c r="AT83" t="n" s="147">
+        <v>3394.0</v>
+      </c>
+      <c r="AU83" t="n" s="147">
+        <v>6787.55</v>
+      </c>
+      <c r="AV83" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW83" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="84" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A84" s="103" t="s">
@@ -22998,6 +24255,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO84" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AP84" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ84" t="n" s="147">
+        <v>1300.0</v>
+      </c>
+      <c r="AR84" t="n" s="147">
+        <v>9.0</v>
+      </c>
+      <c r="AS84" t="n" s="147">
+        <v>0.7</v>
+      </c>
+      <c r="AT84" t="n" s="147">
+        <v>3863.0</v>
+      </c>
+      <c r="AU84" t="n" s="147">
+        <v>34770.45</v>
+      </c>
+      <c r="AV84" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW84" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="85" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A85" s="103" t="s">
@@ -23146,6 +24430,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO85" t="s" s="147">
+        <v>180</v>
+      </c>
+      <c r="AP85" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ85" t="n" s="147">
+        <v>1209.0</v>
+      </c>
+      <c r="AR85" t="n" s="147">
+        <v>3.0</v>
+      </c>
+      <c r="AS85" t="n" s="147">
+        <v>0.25</v>
+      </c>
+      <c r="AT85" t="n" s="147">
+        <v>2431.0</v>
+      </c>
+      <c r="AU85" t="n" s="147">
+        <v>7293.0</v>
+      </c>
+      <c r="AV85" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW85" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A86" s="103" t="s">
@@ -23293,6 +24604,33 @@
       <c r="AM86" s="82">
         <f t="shared" si="70"/>
         <v>0</v>
+      </c>
+      <c r="AO86" t="s" s="147">
+        <v>180</v>
+      </c>
+      <c r="AP86" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ86" t="n" s="147">
+        <v>1089.0</v>
+      </c>
+      <c r="AR86" t="n" s="147">
+        <v>14.0</v>
+      </c>
+      <c r="AS86" t="n" s="147">
+        <v>1.29</v>
+      </c>
+      <c r="AT86" t="n" s="147">
+        <v>2614.0</v>
+      </c>
+      <c r="AU86" t="n" s="147">
+        <v>36597.55</v>
+      </c>
+      <c r="AV86" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW86" t="n" s="147">
+        <v>0.0</v>
       </c>
     </row>
     <row r="87" spans="1:39" x14ac:dyDescent="0.3">
@@ -28767,4800 +30105,1786 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s" s="3">
-        <v>219</v>
-      </c>
-      <c r="B29" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C29" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D29" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F29" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G29" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H29" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I29" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J29" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K29" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="3">
-        <v>221</v>
-      </c>
-      <c r="B30" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C30" t="n" s="106">
-        <v>9.0</v>
-      </c>
-      <c r="D30" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E30" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F30" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G30" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H30" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I30" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J30" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K30" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="3">
-        <v>222</v>
-      </c>
-      <c r="B31" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C31" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D31" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E31" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F31" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G31" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H31" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I31" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J31" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K31" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="3">
-        <v>223</v>
-      </c>
-      <c r="B32" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C32" t="n" s="106">
-        <v>10.0</v>
-      </c>
-      <c r="D32" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E32" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F32" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G32" t="n" s="108">
-        <v>2.4</v>
-      </c>
-      <c r="H32" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I32" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J32" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K32" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="3">
-        <v>224</v>
-      </c>
-      <c r="B33" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C33" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D33" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E33" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F33" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G33" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H33" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I33" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J33" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K33" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="3">
-        <v>225</v>
-      </c>
-      <c r="B34" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C34" t="n" s="106">
-        <v>12.0</v>
-      </c>
-      <c r="D34" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E34" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F34" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G34" t="n" s="108">
-        <v>1.6</v>
-      </c>
-      <c r="H34" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I34" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J34" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K34" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="3">
-        <v>226</v>
-      </c>
-      <c r="B35" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C35" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D35" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E35" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F35" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G35" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H35" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I35" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J35" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K35" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="3">
-        <v>227</v>
-      </c>
-      <c r="B36" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C36" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D36" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E36" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F36" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G36" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H36" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I36" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J36" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K36" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="3">
-        <v>228</v>
-      </c>
-      <c r="B37" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C37" t="n" s="106">
-        <v>16.0</v>
-      </c>
-      <c r="D37" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E37" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F37" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G37" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H37" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I37" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J37" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K37" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="3">
-        <v>229</v>
-      </c>
-      <c r="B38" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C38" t="n" s="106">
-        <v>2.0</v>
-      </c>
-      <c r="D38" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E38" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F38" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G38" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H38" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I38" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J38" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K38" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="3">
-        <v>230</v>
-      </c>
-      <c r="B39" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C39" t="n" s="106">
-        <v>10.0</v>
-      </c>
-      <c r="D39" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F39" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G39" t="n" s="108">
-        <v>3.3</v>
-      </c>
-      <c r="H39" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I39" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J39" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K39" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="3">
-        <v>231</v>
-      </c>
-      <c r="B40" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C40" t="n" s="106">
-        <v>19.0</v>
-      </c>
-      <c r="D40" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E40" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F40" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G40" t="n" s="108">
-        <v>4.4</v>
-      </c>
-      <c r="H40" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I40" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J40" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K40" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="3">
-        <v>232</v>
-      </c>
-      <c r="B41" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C41" t="n" s="106">
-        <v>10.0</v>
-      </c>
-      <c r="D41" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E41" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F41" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G41" t="n" s="108">
-        <v>2.6</v>
-      </c>
-      <c r="H41" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I41" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J41" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K41" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="3">
-        <v>233</v>
-      </c>
-      <c r="B42" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C42" t="n" s="106">
-        <v>8.0</v>
-      </c>
-      <c r="D42" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E42" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F42" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G42" t="n" s="108">
-        <v>1.6</v>
-      </c>
-      <c r="H42" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I42" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J42" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K42" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="3">
-        <v>234</v>
-      </c>
-      <c r="B43" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C43" t="n" s="106">
-        <v>100.0</v>
-      </c>
-      <c r="D43" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="E43" t="n" s="108">
-        <v>11737.0</v>
-      </c>
-      <c r="F43" t="n" s="108">
-        <v>11737.0</v>
-      </c>
-      <c r="G43" t="n" s="108">
-        <v>1.5</v>
-      </c>
-      <c r="H43" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I43" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J43" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K43" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="3">
-        <v>235</v>
-      </c>
-      <c r="B44" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C44" t="n" s="106">
-        <v>5.0</v>
-      </c>
-      <c r="D44" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E44" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F44" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G44" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H44" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I44" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J44" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K44" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="3">
-        <v>236</v>
-      </c>
-      <c r="B45" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C45" t="n" s="106">
-        <v>6.0</v>
-      </c>
-      <c r="D45" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F45" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G45" t="n" s="108">
-        <v>1.8</v>
-      </c>
-      <c r="H45" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I45" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J45" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K45" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="3">
-        <v>238</v>
-      </c>
-      <c r="B46" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C46" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D46" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F46" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G46" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H46" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I46" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J46" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K46" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="3">
-        <v>221</v>
-      </c>
-      <c r="B47" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C47" t="n" s="106">
-        <v>4.0</v>
-      </c>
-      <c r="D47" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E47" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F47" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G47" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H47" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I47" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J47" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K47" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="3">
-        <v>224</v>
-      </c>
-      <c r="B48" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C48" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D48" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E48" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F48" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G48" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H48" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I48" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J48" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K48" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="3">
-        <v>227</v>
-      </c>
-      <c r="B49" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C49" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D49" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E49" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F49" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G49" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H49" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I49" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J49" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K49" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="3">
-        <v>228</v>
-      </c>
-      <c r="B50" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C50" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D50" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E50" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F50" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G50" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H50" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I50" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J50" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K50" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="3">
-        <v>230</v>
-      </c>
-      <c r="B51" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C51" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D51" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E51" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F51" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G51" t="n" s="108">
-        <v>5.0</v>
-      </c>
-      <c r="H51" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I51" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J51" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K51" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="3">
-        <v>231</v>
-      </c>
-      <c r="B52" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C52" t="n" s="106">
-        <v>22.0</v>
-      </c>
-      <c r="D52" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E52" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F52" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G52" t="n" s="108">
-        <v>4.9</v>
-      </c>
-      <c r="H52" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I52" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J52" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K52" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="3">
-        <v>232</v>
-      </c>
-      <c r="B53" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C53" t="n" s="106">
-        <v>63.0</v>
-      </c>
-      <c r="D53" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E53" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F53" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G53" t="n" s="108">
-        <v>2.5</v>
-      </c>
-      <c r="H53" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I53" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J53" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K53" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="3">
-        <v>239</v>
-      </c>
-      <c r="B54" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C54" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D54" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E54" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F54" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G54" t="n" s="108">
-        <v>4.0</v>
-      </c>
-      <c r="H54" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I54" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J54" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K54" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="3">
-        <v>233</v>
-      </c>
-      <c r="B55" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C55" t="n" s="106">
-        <v>2.0</v>
-      </c>
-      <c r="D55" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E55" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F55" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G55" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H55" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I55" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J55" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K55" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="3">
-        <v>234</v>
-      </c>
-      <c r="B56" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C56" t="n" s="106">
-        <v>74.0</v>
-      </c>
-      <c r="D56" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E56" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F56" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G56" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H56" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I56" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J56" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K56" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="3">
-        <v>235</v>
-      </c>
-      <c r="B57" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C57" t="n" s="106">
-        <v>5.0</v>
-      </c>
-      <c r="D57" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E57" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F57" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G57" t="n" s="108">
-        <v>2.2</v>
-      </c>
-      <c r="H57" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I57" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J57" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K57" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="3">
-        <v>240</v>
-      </c>
-      <c r="B58" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C58" t="n" s="106">
-        <v>66.0</v>
-      </c>
-      <c r="D58" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E58" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F58" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G58" t="n" s="108">
-        <v>1.2</v>
-      </c>
-      <c r="H58" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I58" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J58" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K58" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="3">
-        <v>241</v>
-      </c>
-      <c r="B59" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C59" t="n" s="106">
-        <v>5.0</v>
-      </c>
-      <c r="D59" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E59" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F59" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G59" t="n" s="108">
-        <v>3.8</v>
-      </c>
-      <c r="H59" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I59" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J59" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K59" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="3">
-        <v>242</v>
-      </c>
-      <c r="B60" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C60" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D60" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E60" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F60" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G60" t="n" s="108">
-        <v>3.3</v>
-      </c>
-      <c r="H60" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I60" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J60" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K60" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="3">
-        <v>243</v>
-      </c>
-      <c r="B61" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C61" t="n" s="106">
-        <v>36.0</v>
-      </c>
-      <c r="D61" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E61" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F61" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G61" t="n" s="108">
-        <v>3.6</v>
-      </c>
-      <c r="H61" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I61" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J61" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K61" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="3">
-        <v>244</v>
-      </c>
-      <c r="B62" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C62" t="n" s="106">
-        <v>2.0</v>
-      </c>
-      <c r="D62" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E62" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F62" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G62" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H62" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I62" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J62" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K62" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="3">
-        <v>245</v>
-      </c>
-      <c r="B63" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C63" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D63" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E63" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F63" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G63" t="n" s="108">
-        <v>2.3</v>
-      </c>
-      <c r="H63" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I63" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J63" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K63" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="3">
-        <v>246</v>
-      </c>
-      <c r="B64" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C64" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D64" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E64" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F64" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G64" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H64" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I64" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J64" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K64" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="3">
-        <v>247</v>
-      </c>
-      <c r="B65" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C65" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D65" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E65" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F65" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G65" t="n" s="108">
-        <v>3.0</v>
-      </c>
-      <c r="H65" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I65" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J65" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K65" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="3">
-        <v>248</v>
-      </c>
-      <c r="B66" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C66" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D66" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E66" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F66" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G66" t="n" s="108">
-        <v>3.0</v>
-      </c>
-      <c r="H66" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I66" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J66" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K66" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="3">
-        <v>221</v>
-      </c>
-      <c r="B67" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C67" t="n" s="106">
-        <v>365.0</v>
-      </c>
-      <c r="D67" t="n" s="108">
-        <v>5.0</v>
-      </c>
-      <c r="E67" t="n" s="108">
-        <v>88.0</v>
-      </c>
-      <c r="F67" t="n" s="108">
-        <v>440.0</v>
-      </c>
-      <c r="G67" t="n" s="108">
-        <v>3.2</v>
-      </c>
-      <c r="H67" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I67" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J67" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K67" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="3">
-        <v>249</v>
-      </c>
-      <c r="B68" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C68" t="n" s="106">
-        <v>31.0</v>
-      </c>
-      <c r="D68" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E68" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F68" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G68" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H68" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I68" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J68" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K68" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="3">
-        <v>250</v>
-      </c>
-      <c r="B69" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C69" t="n" s="106">
-        <v>4.0</v>
-      </c>
-      <c r="D69" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E69" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F69" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G69" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H69" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I69" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J69" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K69" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="3">
-        <v>251</v>
-      </c>
-      <c r="B70" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C70" t="n" s="106">
-        <v>2.0</v>
-      </c>
-      <c r="D70" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E70" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F70" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G70" t="n" s="108">
-        <v>3.0</v>
-      </c>
-      <c r="H70" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I70" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J70" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K70" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="3">
-        <v>252</v>
-      </c>
-      <c r="B71" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C71" t="n" s="106">
-        <v>13.0</v>
-      </c>
-      <c r="D71" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="E71" t="n" s="108">
-        <v>4488.0</v>
-      </c>
-      <c r="F71" t="n" s="108">
-        <v>4488.0</v>
-      </c>
-      <c r="G71" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H71" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I71" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J71" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K71" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="3">
-        <v>253</v>
-      </c>
-      <c r="B72" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C72" t="n" s="106">
-        <v>4.0</v>
-      </c>
-      <c r="D72" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E72" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F72" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G72" t="n" s="108">
-        <v>2.8</v>
-      </c>
-      <c r="H72" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I72" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J72" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K72" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="3">
-        <v>254</v>
-      </c>
-      <c r="B73" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C73" t="n" s="106">
-        <v>4.0</v>
-      </c>
-      <c r="D73" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E73" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F73" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G73" t="n" s="108">
-        <v>3.8</v>
-      </c>
-      <c r="H73" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I73" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J73" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K73" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="3">
-        <v>255</v>
-      </c>
-      <c r="B74" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C74" t="n" s="106">
-        <v>33.0</v>
-      </c>
-      <c r="D74" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="E74" t="n" s="108">
-        <v>2816.0</v>
-      </c>
-      <c r="F74" t="n" s="108">
-        <v>2816.0</v>
-      </c>
-      <c r="G74" t="n" s="108">
-        <v>1.3</v>
-      </c>
-      <c r="H74" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I74" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J74" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K74" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="3">
-        <v>256</v>
-      </c>
-      <c r="B75" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C75" t="n" s="106">
-        <v>2.0</v>
-      </c>
-      <c r="D75" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E75" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F75" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G75" t="n" s="108">
-        <v>3.5</v>
-      </c>
-      <c r="H75" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I75" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J75" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K75" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="3">
-        <v>257</v>
-      </c>
-      <c r="B76" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C76" t="n" s="106">
-        <v>11.0</v>
-      </c>
-      <c r="D76" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E76" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F76" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G76" t="n" s="108">
-        <v>3.6</v>
-      </c>
-      <c r="H76" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I76" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J76" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K76" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="3">
-        <v>258</v>
-      </c>
-      <c r="B77" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C77" t="n" s="106">
-        <v>2.0</v>
-      </c>
-      <c r="D77" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E77" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F77" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G77" t="n" s="108">
-        <v>2.5</v>
-      </c>
-      <c r="H77" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I77" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J77" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K77" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="3">
-        <v>259</v>
-      </c>
-      <c r="B78" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C78" t="n" s="106">
-        <v>2.0</v>
-      </c>
-      <c r="D78" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E78" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F78" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G78" t="n" s="108">
-        <v>4.0</v>
-      </c>
-      <c r="H78" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I78" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J78" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K78" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="3">
-        <v>260</v>
-      </c>
-      <c r="B79" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C79" t="n" s="106">
-        <v>14.0</v>
-      </c>
-      <c r="D79" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E79" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F79" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G79" t="n" s="108">
-        <v>3.3</v>
-      </c>
-      <c r="H79" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I79" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J79" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K79" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="3">
-        <v>261</v>
-      </c>
-      <c r="B80" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C80" t="n" s="106">
-        <v>4.0</v>
-      </c>
-      <c r="D80" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E80" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F80" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G80" t="n" s="108">
-        <v>2.5</v>
-      </c>
-      <c r="H80" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I80" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J80" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K80" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="3">
-        <v>262</v>
-      </c>
-      <c r="B81" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C81" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D81" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E81" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F81" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G81" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H81" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I81" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J81" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K81" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="3">
-        <v>263</v>
-      </c>
-      <c r="B82" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C82" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D82" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E82" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F82" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G82" t="n" s="108">
-        <v>1.3</v>
-      </c>
-      <c r="H82" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I82" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J82" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K82" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="3">
-        <v>264</v>
-      </c>
-      <c r="B83" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C83" t="n" s="106">
-        <v>9.0</v>
-      </c>
-      <c r="D83" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E83" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F83" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G83" t="n" s="108">
-        <v>2.6</v>
-      </c>
-      <c r="H83" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I83" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J83" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K83" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="3">
-        <v>265</v>
-      </c>
-      <c r="B84" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C84" t="n" s="106">
-        <v>385.0</v>
-      </c>
-      <c r="D84" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E84" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F84" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G84" t="n" s="108">
-        <v>2.3</v>
-      </c>
-      <c r="H84" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I84" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J84" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K84" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="3">
-        <v>266</v>
-      </c>
-      <c r="B85" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C85" t="n" s="106">
-        <v>4.0</v>
-      </c>
-      <c r="D85" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E85" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F85" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G85" t="n" s="108">
-        <v>1.8</v>
-      </c>
-      <c r="H85" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I85" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J85" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K85" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="3">
-        <v>267</v>
-      </c>
-      <c r="B86" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C86" t="n" s="106">
-        <v>5.0</v>
-      </c>
-      <c r="D86" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E86" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F86" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G86" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H86" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I86" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J86" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K86" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="3">
-        <v>268</v>
-      </c>
-      <c r="B87" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C87" t="n" s="106">
-        <v>12.0</v>
-      </c>
-      <c r="D87" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E87" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F87" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G87" t="n" s="108">
-        <v>1.6</v>
-      </c>
-      <c r="H87" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I87" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J87" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K87" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="3">
-        <v>269</v>
-      </c>
-      <c r="B88" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C88" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D88" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E88" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F88" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G88" t="n" s="108">
-        <v>4.0</v>
-      </c>
-      <c r="H88" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I88" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J88" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K88" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="3">
-        <v>270</v>
-      </c>
-      <c r="B89" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C89" t="n" s="106">
-        <v>2.0</v>
-      </c>
-      <c r="D89" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E89" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F89" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G89" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H89" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I89" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J89" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K89" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="3">
-        <v>271</v>
-      </c>
-      <c r="B90" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C90" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D90" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E90" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F90" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G90" t="n" s="108">
-        <v>3.7</v>
-      </c>
-      <c r="H90" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I90" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J90" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K90" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="3">
-        <v>272</v>
-      </c>
-      <c r="B91" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C91" t="n" s="106">
-        <v>9.0</v>
-      </c>
-      <c r="D91" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E91" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F91" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G91" t="n" s="108">
-        <v>1.1</v>
-      </c>
-      <c r="H91" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I91" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J91" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K91" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="3">
-        <v>273</v>
-      </c>
-      <c r="B92" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C92" t="n" s="106">
-        <v>67.0</v>
-      </c>
-      <c r="D92" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E92" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F92" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G92" t="n" s="108">
-        <v>1.6</v>
-      </c>
-      <c r="H92" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I92" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J92" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K92" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="3">
-        <v>274</v>
-      </c>
-      <c r="B93" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C93" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D93" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E93" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F93" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G93" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H93" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I93" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J93" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K93" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="3">
-        <v>275</v>
-      </c>
-      <c r="B94" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C94" t="n" s="106">
-        <v>10.0</v>
-      </c>
-      <c r="D94" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E94" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F94" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G94" t="n" s="108">
-        <v>1.4</v>
-      </c>
-      <c r="H94" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I94" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J94" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K94" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="3">
-        <v>276</v>
-      </c>
-      <c r="B95" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C95" t="n" s="106">
-        <v>5.0</v>
-      </c>
-      <c r="D95" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="E95" t="n" s="108">
-        <v>1254.0</v>
-      </c>
-      <c r="F95" t="n" s="108">
-        <v>1254.0</v>
-      </c>
-      <c r="G95" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H95" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I95" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J95" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K95" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="3">
-        <v>277</v>
-      </c>
-      <c r="B96" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C96" t="n" s="106">
-        <v>12.0</v>
-      </c>
-      <c r="D96" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E96" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F96" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G96" t="n" s="108">
-        <v>1.4</v>
-      </c>
-      <c r="H96" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I96" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J96" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K96" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="3">
-        <v>278</v>
-      </c>
-      <c r="B97" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C97" t="n" s="106">
-        <v>2.0</v>
-      </c>
-      <c r="D97" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E97" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F97" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G97" t="n" s="108">
-        <v>1.5</v>
-      </c>
-      <c r="H97" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I97" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J97" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K97" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="3">
-        <v>279</v>
-      </c>
-      <c r="B98" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C98" t="n" s="106">
-        <v>13.0</v>
-      </c>
-      <c r="D98" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E98" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F98" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G98" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H98" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I98" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J98" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K98" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="3">
-        <v>280</v>
-      </c>
-      <c r="B99" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C99" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D99" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E99" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F99" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G99" t="n" s="108">
-        <v>3.0</v>
-      </c>
-      <c r="H99" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I99" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J99" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K99" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="3">
-        <v>281</v>
-      </c>
-      <c r="B100" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C100" t="n" s="106">
-        <v>7.0</v>
-      </c>
-      <c r="D100" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E100" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F100" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G100" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H100" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I100" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J100" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K100" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="3">
-        <v>282</v>
-      </c>
-      <c r="B101" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C101" t="n" s="106">
-        <v>42.0</v>
-      </c>
-      <c r="D101" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="E101" t="n" s="108">
-        <v>7640.0</v>
-      </c>
-      <c r="F101" t="n" s="108">
-        <v>15279.0</v>
-      </c>
-      <c r="G101" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H101" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I101" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J101" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K101" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="3">
-        <v>283</v>
-      </c>
-      <c r="B102" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C102" t="n" s="106">
-        <v>5.0</v>
-      </c>
-      <c r="D102" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E102" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F102" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G102" t="n" s="108">
-        <v>1.8</v>
-      </c>
-      <c r="H102" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I102" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J102" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K102" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="3">
-        <v>284</v>
-      </c>
-      <c r="B103" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C103" t="n" s="106">
-        <v>11.0</v>
-      </c>
-      <c r="D103" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E103" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F103" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G103" t="n" s="108">
-        <v>2.4</v>
-      </c>
-      <c r="H103" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I103" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J103" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K103" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="3">
-        <v>285</v>
-      </c>
-      <c r="B104" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C104" t="n" s="106">
-        <v>19.0</v>
-      </c>
-      <c r="D104" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E104" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F104" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G104" t="n" s="108">
-        <v>1.2</v>
-      </c>
-      <c r="H104" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I104" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J104" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K104" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="3">
-        <v>286</v>
-      </c>
-      <c r="B105" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C105" t="n" s="106">
-        <v>2.0</v>
-      </c>
-      <c r="D105" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E105" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F105" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G105" t="n" s="108">
-        <v>2.5</v>
-      </c>
-      <c r="H105" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I105" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J105" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K105" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="3">
-        <v>287</v>
-      </c>
-      <c r="B106" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C106" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D106" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E106" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F106" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G106" t="n" s="108">
-        <v>4.0</v>
-      </c>
-      <c r="H106" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I106" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J106" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K106" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="3">
-        <v>288</v>
-      </c>
-      <c r="B107" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C107" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D107" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E107" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F107" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G107" t="n" s="108">
-        <v>4.0</v>
-      </c>
-      <c r="H107" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I107" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J107" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K107" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="3">
-        <v>289</v>
-      </c>
-      <c r="B108" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C108" t="n" s="106">
-        <v>5.0</v>
-      </c>
-      <c r="D108" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E108" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F108" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G108" t="n" s="108">
-        <v>3.0</v>
-      </c>
-      <c r="H108" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I108" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J108" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K108" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="B109" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C109" t="n" s="106">
-        <v>12.0</v>
-      </c>
-      <c r="D109" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E109" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F109" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G109" t="n" s="108">
-        <v>1.8</v>
-      </c>
-      <c r="H109" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I109" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J109" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K109" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="3">
-        <v>291</v>
-      </c>
-      <c r="B110" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C110" t="n" s="106">
-        <v>30.0</v>
-      </c>
-      <c r="D110" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="E110" t="n" s="108">
-        <v>4978.0</v>
-      </c>
-      <c r="F110" t="n" s="108">
-        <v>9955.0</v>
-      </c>
-      <c r="G110" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H110" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I110" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J110" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K110" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="3">
-        <v>292</v>
-      </c>
-      <c r="B111" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C111" t="n" s="106">
-        <v>10.0</v>
-      </c>
-      <c r="D111" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E111" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F111" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G111" t="n" s="108">
-        <v>1.5</v>
-      </c>
-      <c r="H111" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I111" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J111" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K111" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="B112" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C112" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D112" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E112" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F112" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G112" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H112" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I112" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J112" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K112" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="3">
-        <v>294</v>
-      </c>
-      <c r="B113" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C113" t="n" s="106">
-        <v>37.0</v>
-      </c>
-      <c r="D113" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E113" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F113" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G113" t="n" s="108">
-        <v>3.6</v>
-      </c>
-      <c r="H113" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I113" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J113" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K113" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="3">
-        <v>295</v>
-      </c>
-      <c r="B114" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C114" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D114" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E114" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F114" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G114" t="n" s="108">
-        <v>2.3</v>
-      </c>
-      <c r="H114" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I114" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J114" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K114" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="3">
-        <v>240</v>
-      </c>
-      <c r="B115" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C115" t="n" s="106">
-        <v>11.0</v>
-      </c>
-      <c r="D115" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E115" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F115" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G115" t="n" s="108">
-        <v>1.2</v>
-      </c>
-      <c r="H115" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I115" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J115" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K115" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="3">
-        <v>241</v>
-      </c>
-      <c r="B116" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C116" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D116" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E116" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F116" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G116" t="n" s="108">
-        <v>4.3</v>
-      </c>
-      <c r="H116" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I116" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J116" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K116" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="3">
-        <v>242</v>
-      </c>
-      <c r="B117" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C117" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D117" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E117" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F117" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G117" t="n" s="108">
-        <v>3.3</v>
-      </c>
-      <c r="H117" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I117" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J117" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K117" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="3">
-        <v>243</v>
-      </c>
-      <c r="B118" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C118" t="n" s="106">
-        <v>18.0</v>
-      </c>
-      <c r="D118" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E118" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F118" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G118" t="n" s="108">
-        <v>2.9</v>
-      </c>
-      <c r="H118" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I118" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J118" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K118" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="3">
-        <v>246</v>
-      </c>
-      <c r="B119" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C119" t="n" s="106">
-        <v>4.0</v>
-      </c>
-      <c r="D119" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E119" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F119" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G119" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H119" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I119" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J119" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K119" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="3">
-        <v>247</v>
-      </c>
-      <c r="B120" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C120" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D120" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E120" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F120" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G120" t="n" s="108">
-        <v>4.0</v>
-      </c>
-      <c r="H120" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I120" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J120" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K120" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="3">
-        <v>248</v>
-      </c>
-      <c r="B121" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C121" t="n" s="106">
-        <v>5.0</v>
-      </c>
-      <c r="D121" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E121" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F121" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G121" t="n" s="108">
-        <v>2.8</v>
-      </c>
-      <c r="H121" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I121" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J121" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K121" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="3">
-        <v>221</v>
-      </c>
-      <c r="B122" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C122" t="n" s="106">
-        <v>830.0</v>
-      </c>
-      <c r="D122" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E122" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F122" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G122" t="n" s="108">
-        <v>2.5</v>
-      </c>
-      <c r="H122" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I122" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J122" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K122" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s" s="3">
-        <v>249</v>
-      </c>
-      <c r="B123" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C123" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D123" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E123" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F123" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G123" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H123" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I123" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J123" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K123" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s" s="3">
-        <v>251</v>
-      </c>
-      <c r="B124" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C124" t="n" s="106">
-        <v>5.0</v>
-      </c>
-      <c r="D124" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E124" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F124" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G124" t="n" s="108">
-        <v>4.0</v>
-      </c>
-      <c r="H124" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I124" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J124" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K124" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="3">
-        <v>252</v>
-      </c>
-      <c r="B125" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C125" t="n" s="106">
-        <v>5.0</v>
-      </c>
-      <c r="D125" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E125" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F125" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G125" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H125" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I125" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J125" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K125" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="3">
-        <v>255</v>
-      </c>
-      <c r="B126" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C126" t="n" s="106">
-        <v>13.0</v>
-      </c>
-      <c r="D126" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E126" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F126" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G126" t="n" s="108">
-        <v>1.9</v>
-      </c>
-      <c r="H126" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I126" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J126" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K126" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s" s="3">
-        <v>256</v>
-      </c>
-      <c r="B127" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C127" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D127" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E127" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F127" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G127" t="n" s="108">
-        <v>5.0</v>
-      </c>
-      <c r="H127" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I127" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J127" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K127" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s" s="3">
-        <v>296</v>
-      </c>
-      <c r="B128" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C128" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D128" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E128" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F128" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G128" t="n" s="108">
-        <v>4.0</v>
-      </c>
-      <c r="H128" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I128" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J128" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K128" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s" s="3">
-        <v>257</v>
-      </c>
-      <c r="B129" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C129" t="n" s="106">
-        <v>4.0</v>
-      </c>
-      <c r="D129" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E129" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F129" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G129" t="n" s="108">
-        <v>4.8</v>
-      </c>
-      <c r="H129" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I129" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J129" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K129" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s" s="3">
-        <v>258</v>
-      </c>
-      <c r="B130" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C130" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D130" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E130" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F130" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G130" t="n" s="108">
-        <v>3.0</v>
-      </c>
-      <c r="H130" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I130" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J130" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K130" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s" s="3">
-        <v>261</v>
-      </c>
-      <c r="B131" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C131" t="n" s="106">
-        <v>4.0</v>
-      </c>
-      <c r="D131" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E131" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F131" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G131" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H131" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I131" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J131" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K131" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s" s="3">
-        <v>264</v>
-      </c>
-      <c r="B132" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C132" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D132" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E132" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F132" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G132" t="n" s="108">
-        <v>2.3</v>
-      </c>
-      <c r="H132" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I132" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J132" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K132" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="3">
-        <v>265</v>
-      </c>
-      <c r="B133" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C133" t="n" s="106">
-        <v>54.0</v>
-      </c>
-      <c r="D133" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E133" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F133" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G133" t="n" s="108">
-        <v>2.6</v>
-      </c>
-      <c r="H133" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I133" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J133" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K133" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="B134" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C134" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D134" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E134" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F134" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G134" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H134" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I134" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J134" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K134" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s" s="3">
-        <v>266</v>
-      </c>
-      <c r="B135" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C135" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D135" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E135" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F135" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G135" t="n" s="108">
-        <v>3.0</v>
-      </c>
-      <c r="H135" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I135" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J135" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K135" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s" s="3">
-        <v>268</v>
-      </c>
-      <c r="B136" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C136" t="n" s="106">
-        <v>7.0</v>
-      </c>
-      <c r="D136" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E136" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F136" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G136" t="n" s="108">
-        <v>1.3</v>
-      </c>
-      <c r="H136" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I136" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J136" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K136" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s" s="3">
-        <v>271</v>
-      </c>
-      <c r="B137" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C137" t="n" s="106">
-        <v>2.0</v>
-      </c>
-      <c r="D137" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E137" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F137" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G137" t="n" s="108">
-        <v>3.0</v>
-      </c>
-      <c r="H137" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I137" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J137" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K137" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s" s="3">
-        <v>272</v>
-      </c>
-      <c r="B138" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C138" t="n" s="106">
-        <v>5.0</v>
-      </c>
-      <c r="D138" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E138" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F138" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G138" t="n" s="108">
-        <v>2.6</v>
-      </c>
-      <c r="H138" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I138" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J138" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K138" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s" s="3">
-        <v>273</v>
-      </c>
-      <c r="B139" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C139" t="n" s="106">
-        <v>61.0</v>
-      </c>
-      <c r="D139" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E139" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F139" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G139" t="n" s="108">
-        <v>1.8</v>
-      </c>
-      <c r="H139" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I139" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J139" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K139" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="3">
-        <v>274</v>
-      </c>
-      <c r="B140" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C140" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D140" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E140" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F140" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G140" t="n" s="108">
-        <v>4.0</v>
-      </c>
-      <c r="H140" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I140" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J140" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K140" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="3">
-        <v>298</v>
-      </c>
-      <c r="B141" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C141" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D141" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E141" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F141" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G141" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H141" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I141" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J141" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K141" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s" s="3">
-        <v>276</v>
-      </c>
-      <c r="B142" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C142" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D142" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E142" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F142" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G142" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H142" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I142" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J142" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K142" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s" s="3">
-        <v>277</v>
-      </c>
-      <c r="B143" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C143" t="n" s="106">
-        <v>5.0</v>
-      </c>
-      <c r="D143" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E143" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F143" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G143" t="n" s="108">
-        <v>1.2</v>
-      </c>
-      <c r="H143" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I143" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J143" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K143" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s" s="3">
-        <v>279</v>
-      </c>
-      <c r="B144" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C144" t="n" s="106">
-        <v>5.0</v>
-      </c>
-      <c r="D144" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E144" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F144" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G144" t="n" s="108">
-        <v>1.6</v>
-      </c>
-      <c r="H144" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I144" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J144" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K144" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s" s="3">
-        <v>281</v>
-      </c>
-      <c r="B145" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C145" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D145" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E145" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F145" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G145" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H145" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I145" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J145" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K145" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s" s="3">
-        <v>282</v>
-      </c>
-      <c r="B146" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C146" t="n" s="106">
-        <v>87.0</v>
-      </c>
-      <c r="D146" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E146" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F146" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G146" t="n" s="108">
-        <v>2.1</v>
-      </c>
-      <c r="H146" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I146" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J146" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K146" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="B147" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C147" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D147" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E147" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F147" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G147" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H147" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I147" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J147" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K147" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s" s="3">
-        <v>283</v>
-      </c>
-      <c r="B148" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C148" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D148" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E148" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F148" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G148" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H148" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I148" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J148" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K148" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s" s="3">
-        <v>284</v>
-      </c>
-      <c r="B149" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C149" t="n" s="106">
-        <v>7.0</v>
-      </c>
-      <c r="D149" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E149" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F149" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G149" t="n" s="108">
-        <v>1.6</v>
-      </c>
-      <c r="H149" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I149" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J149" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K149" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s" s="3">
-        <v>285</v>
-      </c>
-      <c r="B150" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C150" t="n" s="106">
-        <v>36.0</v>
-      </c>
-      <c r="D150" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E150" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F150" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G150" t="n" s="108">
-        <v>2.4</v>
-      </c>
-      <c r="H150" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I150" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J150" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K150" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s" s="3">
-        <v>286</v>
-      </c>
-      <c r="B151" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C151" t="n" s="106">
-        <v>2.0</v>
-      </c>
-      <c r="D151" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E151" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F151" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G151" t="n" s="108">
-        <v>3.0</v>
-      </c>
-      <c r="H151" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I151" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J151" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K151" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s" s="3">
-        <v>287</v>
-      </c>
-      <c r="B152" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C152" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D152" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E152" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F152" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G152" t="n" s="108">
-        <v>4.0</v>
-      </c>
-      <c r="H152" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I152" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J152" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K152" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s" s="3">
-        <v>289</v>
-      </c>
-      <c r="B153" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C153" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D153" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E153" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F153" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G153" t="n" s="108">
-        <v>4.0</v>
-      </c>
-      <c r="H153" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I153" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J153" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K153" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="B154" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C154" t="n" s="106">
-        <v>5.0</v>
-      </c>
-      <c r="D154" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E154" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F154" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G154" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H154" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I154" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J154" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K154" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s" s="3">
-        <v>291</v>
-      </c>
-      <c r="B155" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C155" t="n" s="106">
-        <v>10.0</v>
-      </c>
-      <c r="D155" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E155" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F155" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G155" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H155" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I155" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J155" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K155" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s" s="3">
-        <v>292</v>
-      </c>
-      <c r="B156" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C156" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D156" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E156" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F156" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G156" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H156" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I156" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J156" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K156" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="B157" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C157" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D157" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E157" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F157" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G157" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H157" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I157" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J157" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K157" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s" s="3">
-        <v>294</v>
-      </c>
-      <c r="B158" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C158" t="n" s="106">
-        <v>4.0</v>
-      </c>
-      <c r="D158" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E158" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F158" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G158" t="n" s="108">
-        <v>4.8</v>
-      </c>
-      <c r="H158" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I158" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J158" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K158" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s" s="3">
-        <v>240</v>
-      </c>
-      <c r="B159" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C159" t="n" s="106">
-        <v>51.0</v>
-      </c>
-      <c r="D159" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E159" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F159" t="n" s="108">
-        <v>28.05</v>
-      </c>
-      <c r="G159" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H159" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I159" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J159" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K159" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s" s="3">
-        <v>240</v>
-      </c>
-      <c r="B160" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C160" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D160" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E160" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F160" t="n" s="108">
-        <v>0.55</v>
-      </c>
-      <c r="G160" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H160" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I160" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J160" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K160" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s" s="3">
-        <v>240</v>
-      </c>
-      <c r="B161" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C161" t="n" s="106">
-        <v>254.0</v>
-      </c>
-      <c r="D161" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E161" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F161" t="n" s="108">
-        <v>136.95</v>
-      </c>
-      <c r="G161" t="n" s="108">
-        <v>1.1</v>
-      </c>
-      <c r="H161" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I161" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J161" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K161" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s" s="3">
-        <v>240</v>
-      </c>
-      <c r="B162" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C162" t="n" s="106">
-        <v>4.0</v>
-      </c>
-      <c r="D162" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E162" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F162" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G162" t="n" s="108">
-        <v>1.5</v>
-      </c>
-      <c r="H162" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I162" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J162" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K162" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s" s="3">
-        <v>240</v>
-      </c>
-      <c r="B163" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C163" t="n" s="106">
-        <v>53.0</v>
-      </c>
-      <c r="D163" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="E163" t="n" s="108">
-        <v>3080.0</v>
-      </c>
-      <c r="F163" t="n" s="108">
-        <v>3080.0</v>
-      </c>
-      <c r="G163" t="n" s="108">
-        <v>1.9</v>
-      </c>
-      <c r="H163" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I163" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J163" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K163" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s" s="3">
-        <v>240</v>
-      </c>
-      <c r="B164" t="s" s="106">
-        <v>237</v>
-      </c>
-      <c r="C164" t="n" s="106">
-        <v>125.0</v>
-      </c>
-      <c r="D164" t="n" s="108">
-        <v>5.0</v>
-      </c>
-      <c r="E164" t="n" s="108">
-        <v>2816.0</v>
-      </c>
-      <c r="F164" t="n" s="108">
-        <v>14080.0</v>
-      </c>
-      <c r="G164" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H164" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I164" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J164" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K164" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s" s="3">
-        <v>240</v>
-      </c>
-      <c r="B165" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C165" t="n" s="106">
-        <v>449.0</v>
-      </c>
-      <c r="D165" t="n" s="108">
-        <v>9.0</v>
-      </c>
-      <c r="E165" t="n" s="108">
-        <v>2462.0</v>
-      </c>
-      <c r="F165" t="n" s="108">
-        <v>22154.0</v>
-      </c>
-      <c r="G165" t="n" s="108">
-        <v>2.2</v>
-      </c>
-      <c r="H165" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I165" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J165" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K165" t="n" s="108">
-        <v>0.0</v>
-      </c>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="126"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="127"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="127"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="126"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="127"/>
+      <c r="L33" s="127"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="126"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="127"/>
+      <c r="K34" s="127"/>
+      <c r="L34" s="127"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="126"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="127"/>
+      <c r="K35" s="127"/>
+      <c r="L35" s="127"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="126"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="127"/>
+      <c r="K36" s="127"/>
+      <c r="L36" s="127"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="126"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="127"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="127"/>
+      <c r="K37" s="127"/>
+      <c r="L37" s="127"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="126"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="127"/>
+      <c r="J38" s="127"/>
+      <c r="K38" s="127"/>
+      <c r="L38" s="127"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="126"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="127"/>
+      <c r="K39" s="127"/>
+      <c r="L39" s="127"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="126"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="127"/>
+      <c r="K40" s="127"/>
+      <c r="L40" s="127"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="126"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="127"/>
+      <c r="K41" s="127"/>
+      <c r="L41" s="127"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="126"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="127"/>
+      <c r="L42" s="127"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="127"/>
+      <c r="G43" s="127"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="127"/>
+      <c r="K43" s="127"/>
+      <c r="L43" s="127"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="126"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="127"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="127"/>
+      <c r="K44" s="127"/>
+      <c r="L44" s="127"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="126"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="127"/>
+      <c r="K45" s="127"/>
+      <c r="L45" s="127"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="126"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="127"/>
+      <c r="K46" s="127"/>
+      <c r="L46" s="127"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="126"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="127"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="127"/>
+      <c r="J47" s="127"/>
+      <c r="K47" s="127"/>
+      <c r="L47" s="127"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B48" s="126"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="127"/>
+      <c r="G48" s="127"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="127"/>
+      <c r="J48" s="127"/>
+      <c r="K48" s="127"/>
+      <c r="L48" s="127"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B49" s="126"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="127"/>
+      <c r="F49" s="127"/>
+      <c r="G49" s="127"/>
+      <c r="H49" s="128"/>
+      <c r="I49" s="127"/>
+      <c r="J49" s="127"/>
+      <c r="K49" s="127"/>
+      <c r="L49" s="127"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50" s="126"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="127"/>
+      <c r="H50" s="128"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="127"/>
+      <c r="L50" s="127"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B51" s="126"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="128"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="127"/>
+      <c r="K51" s="127"/>
+      <c r="L51" s="127"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B52" s="126"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="127"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="128"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="127"/>
+      <c r="K52" s="127"/>
+      <c r="L52" s="127"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B53" s="126"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="127"/>
+      <c r="J53" s="127"/>
+      <c r="K53" s="127"/>
+      <c r="L53" s="127"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B54" s="126"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="127"/>
+      <c r="G54" s="127"/>
+      <c r="H54" s="128"/>
+      <c r="I54" s="127"/>
+      <c r="J54" s="127"/>
+      <c r="K54" s="127"/>
+      <c r="L54" s="127"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B55" s="126"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="127"/>
+      <c r="E55" s="127"/>
+      <c r="F55" s="127"/>
+      <c r="G55" s="127"/>
+      <c r="H55" s="128"/>
+      <c r="I55" s="127"/>
+      <c r="J55" s="127"/>
+      <c r="K55" s="127"/>
+      <c r="L55" s="127"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B56" s="126"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="127"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="127"/>
+      <c r="G56" s="127"/>
+      <c r="H56" s="128"/>
+      <c r="I56" s="127"/>
+      <c r="J56" s="127"/>
+      <c r="K56" s="127"/>
+      <c r="L56" s="127"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B57" s="126"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="127"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="128"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="127"/>
+      <c r="K57" s="127"/>
+      <c r="L57" s="127"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B58" s="126"/>
+      <c r="C58" s="126"/>
+      <c r="D58" s="127"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="127"/>
+      <c r="G58" s="127"/>
+      <c r="H58" s="128"/>
+      <c r="I58" s="127"/>
+      <c r="J58" s="127"/>
+      <c r="K58" s="127"/>
+      <c r="L58" s="127"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B59" s="126"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="127"/>
+      <c r="F59" s="127"/>
+      <c r="G59" s="127"/>
+      <c r="H59" s="128"/>
+      <c r="I59" s="127"/>
+      <c r="J59" s="127"/>
+      <c r="K59" s="127"/>
+      <c r="L59" s="127"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B60" s="126"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="127"/>
+      <c r="E60" s="127"/>
+      <c r="F60" s="127"/>
+      <c r="G60" s="127"/>
+      <c r="H60" s="128"/>
+      <c r="I60" s="127"/>
+      <c r="J60" s="127"/>
+      <c r="K60" s="127"/>
+      <c r="L60" s="127"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B61" s="126"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="127"/>
+      <c r="E61" s="127"/>
+      <c r="F61" s="127"/>
+      <c r="G61" s="127"/>
+      <c r="H61" s="128"/>
+      <c r="I61" s="127"/>
+      <c r="J61" s="127"/>
+      <c r="K61" s="127"/>
+      <c r="L61" s="127"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B62" s="126"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="127"/>
+      <c r="E62" s="127"/>
+      <c r="F62" s="127"/>
+      <c r="G62" s="127"/>
+      <c r="H62" s="128"/>
+      <c r="I62" s="127"/>
+      <c r="J62" s="127"/>
+      <c r="K62" s="127"/>
+      <c r="L62" s="127"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B63" s="126"/>
+      <c r="C63" s="126"/>
+      <c r="D63" s="127"/>
+      <c r="E63" s="127"/>
+      <c r="F63" s="127"/>
+      <c r="G63" s="127"/>
+      <c r="H63" s="128"/>
+      <c r="I63" s="127"/>
+      <c r="J63" s="127"/>
+      <c r="K63" s="127"/>
+      <c r="L63" s="127"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B64" s="126"/>
+      <c r="C64" s="126"/>
+      <c r="D64" s="127"/>
+      <c r="E64" s="127"/>
+      <c r="F64" s="127"/>
+      <c r="G64" s="127"/>
+      <c r="H64" s="128"/>
+      <c r="I64" s="127"/>
+      <c r="J64" s="127"/>
+      <c r="K64" s="127"/>
+      <c r="L64" s="127"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B65" s="126"/>
+      <c r="C65" s="126"/>
+      <c r="D65" s="127"/>
+      <c r="E65" s="127"/>
+      <c r="F65" s="127"/>
+      <c r="G65" s="127"/>
+      <c r="H65" s="128"/>
+      <c r="I65" s="127"/>
+      <c r="J65" s="127"/>
+      <c r="K65" s="127"/>
+      <c r="L65" s="127"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B66" s="126"/>
+      <c r="C66" s="126"/>
+      <c r="D66" s="127"/>
+      <c r="E66" s="127"/>
+      <c r="F66" s="127"/>
+      <c r="G66" s="127"/>
+      <c r="H66" s="128"/>
+      <c r="I66" s="127"/>
+      <c r="J66" s="127"/>
+      <c r="K66" s="127"/>
+      <c r="L66" s="127"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B67" s="126"/>
+      <c r="C67" s="126"/>
+      <c r="D67" s="127"/>
+      <c r="E67" s="127"/>
+      <c r="F67" s="127"/>
+      <c r="G67" s="127"/>
+      <c r="H67" s="128"/>
+      <c r="I67" s="127"/>
+      <c r="J67" s="127"/>
+      <c r="K67" s="127"/>
+      <c r="L67" s="127"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B68" s="126"/>
+      <c r="C68" s="126"/>
+      <c r="D68" s="127"/>
+      <c r="E68" s="127"/>
+      <c r="F68" s="127"/>
+      <c r="G68" s="127"/>
+      <c r="H68" s="128"/>
+      <c r="I68" s="127"/>
+      <c r="J68" s="127"/>
+      <c r="K68" s="127"/>
+      <c r="L68" s="127"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B69" s="126"/>
+      <c r="C69" s="126"/>
+      <c r="D69" s="127"/>
+      <c r="E69" s="127"/>
+      <c r="F69" s="127"/>
+      <c r="G69" s="127"/>
+      <c r="H69" s="128"/>
+      <c r="I69" s="127"/>
+      <c r="J69" s="127"/>
+      <c r="K69" s="127"/>
+      <c r="L69" s="127"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B70" s="126"/>
+      <c r="C70" s="126"/>
+      <c r="D70" s="127"/>
+      <c r="E70" s="127"/>
+      <c r="F70" s="127"/>
+      <c r="G70" s="127"/>
+      <c r="H70" s="128"/>
+      <c r="I70" s="127"/>
+      <c r="J70" s="127"/>
+      <c r="K70" s="127"/>
+      <c r="L70" s="127"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B71" s="126"/>
+      <c r="C71" s="126"/>
+      <c r="D71" s="127"/>
+      <c r="E71" s="127"/>
+      <c r="F71" s="127"/>
+      <c r="G71" s="127"/>
+      <c r="H71" s="128"/>
+      <c r="I71" s="127"/>
+      <c r="J71" s="127"/>
+      <c r="K71" s="127"/>
+      <c r="L71" s="127"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B72" s="126"/>
+      <c r="C72" s="126"/>
+      <c r="D72" s="127"/>
+      <c r="E72" s="127"/>
+      <c r="F72" s="127"/>
+      <c r="G72" s="127"/>
+      <c r="H72" s="128"/>
+      <c r="I72" s="127"/>
+      <c r="J72" s="127"/>
+      <c r="K72" s="127"/>
+      <c r="L72" s="127"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B73" s="126"/>
+      <c r="C73" s="126"/>
+      <c r="D73" s="127"/>
+      <c r="E73" s="127"/>
+      <c r="F73" s="127"/>
+      <c r="G73" s="127"/>
+      <c r="H73" s="128"/>
+      <c r="I73" s="127"/>
+      <c r="J73" s="127"/>
+      <c r="K73" s="127"/>
+      <c r="L73" s="127"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B74" s="126"/>
+      <c r="C74" s="126"/>
+      <c r="D74" s="127"/>
+      <c r="E74" s="127"/>
+      <c r="F74" s="127"/>
+      <c r="G74" s="127"/>
+      <c r="H74" s="128"/>
+      <c r="I74" s="127"/>
+      <c r="J74" s="127"/>
+      <c r="K74" s="127"/>
+      <c r="L74" s="127"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B75" s="126"/>
+      <c r="C75" s="126"/>
+      <c r="D75" s="127"/>
+      <c r="E75" s="127"/>
+      <c r="F75" s="127"/>
+      <c r="G75" s="127"/>
+      <c r="H75" s="128"/>
+      <c r="I75" s="127"/>
+      <c r="J75" s="127"/>
+      <c r="K75" s="127"/>
+      <c r="L75" s="127"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B76" s="126"/>
+      <c r="C76" s="126"/>
+      <c r="D76" s="127"/>
+      <c r="E76" s="127"/>
+      <c r="F76" s="127"/>
+      <c r="G76" s="127"/>
+      <c r="H76" s="128"/>
+      <c r="I76" s="127"/>
+      <c r="J76" s="127"/>
+      <c r="K76" s="127"/>
+      <c r="L76" s="127"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B77" s="126"/>
+      <c r="C77" s="126"/>
+      <c r="D77" s="127"/>
+      <c r="E77" s="127"/>
+      <c r="F77" s="127"/>
+      <c r="G77" s="127"/>
+      <c r="H77" s="128"/>
+      <c r="I77" s="127"/>
+      <c r="J77" s="127"/>
+      <c r="K77" s="127"/>
+      <c r="L77" s="127"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B78" s="126"/>
+      <c r="C78" s="126"/>
+      <c r="D78" s="127"/>
+      <c r="E78" s="127"/>
+      <c r="F78" s="127"/>
+      <c r="G78" s="127"/>
+      <c r="H78" s="128"/>
+      <c r="I78" s="127"/>
+      <c r="J78" s="127"/>
+      <c r="K78" s="127"/>
+      <c r="L78" s="127"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B79" s="126"/>
+      <c r="C79" s="126"/>
+      <c r="D79" s="127"/>
+      <c r="E79" s="127"/>
+      <c r="F79" s="127"/>
+      <c r="G79" s="127"/>
+      <c r="H79" s="128"/>
+      <c r="I79" s="127"/>
+      <c r="J79" s="127"/>
+      <c r="K79" s="127"/>
+      <c r="L79" s="127"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B80" s="126"/>
+      <c r="C80" s="126"/>
+      <c r="D80" s="127"/>
+      <c r="E80" s="127"/>
+      <c r="F80" s="127"/>
+      <c r="G80" s="127"/>
+      <c r="H80" s="128"/>
+      <c r="I80" s="127"/>
+      <c r="J80" s="127"/>
+      <c r="K80" s="127"/>
+      <c r="L80" s="127"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B81" s="126"/>
+      <c r="C81" s="126"/>
+      <c r="D81" s="127"/>
+      <c r="E81" s="127"/>
+      <c r="F81" s="127"/>
+      <c r="G81" s="127"/>
+      <c r="H81" s="128"/>
+      <c r="I81" s="127"/>
+      <c r="J81" s="127"/>
+      <c r="K81" s="127"/>
+      <c r="L81" s="127"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B82" s="126"/>
+      <c r="C82" s="126"/>
+      <c r="D82" s="127"/>
+      <c r="E82" s="127"/>
+      <c r="F82" s="127"/>
+      <c r="G82" s="127"/>
+      <c r="H82" s="128"/>
+      <c r="I82" s="127"/>
+      <c r="J82" s="127"/>
+      <c r="K82" s="127"/>
+      <c r="L82" s="127"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B83" s="126"/>
+      <c r="C83" s="126"/>
+      <c r="D83" s="127"/>
+      <c r="E83" s="127"/>
+      <c r="F83" s="127"/>
+      <c r="G83" s="127"/>
+      <c r="H83" s="128"/>
+      <c r="I83" s="127"/>
+      <c r="J83" s="127"/>
+      <c r="K83" s="127"/>
+      <c r="L83" s="127"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B84" s="126"/>
+      <c r="C84" s="126"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="127"/>
+      <c r="G84" s="127"/>
+      <c r="H84" s="128"/>
+      <c r="I84" s="127"/>
+      <c r="J84" s="127"/>
+      <c r="K84" s="127"/>
+      <c r="L84" s="127"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B85" s="126"/>
+      <c r="C85" s="126"/>
+      <c r="D85" s="127"/>
+      <c r="E85" s="127"/>
+      <c r="F85" s="127"/>
+      <c r="G85" s="127"/>
+      <c r="H85" s="128"/>
+      <c r="I85" s="127"/>
+      <c r="J85" s="127"/>
+      <c r="K85" s="127"/>
+      <c r="L85" s="127"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B86" s="126"/>
+      <c r="C86" s="126"/>
+      <c r="D86" s="127"/>
+      <c r="E86" s="127"/>
+      <c r="F86" s="127"/>
+      <c r="G86" s="127"/>
+      <c r="H86" s="128"/>
+      <c r="I86" s="127"/>
+      <c r="J86" s="127"/>
+      <c r="K86" s="127"/>
+      <c r="L86" s="127"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B87" s="126"/>
+      <c r="C87" s="126"/>
+      <c r="D87" s="127"/>
+      <c r="E87" s="127"/>
+      <c r="F87" s="127"/>
+      <c r="G87" s="127"/>
+      <c r="H87" s="128"/>
+      <c r="I87" s="127"/>
+      <c r="J87" s="127"/>
+      <c r="K87" s="127"/>
+      <c r="L87" s="127"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B88" s="126"/>
+      <c r="C88" s="126"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
+      <c r="G88" s="127"/>
+      <c r="H88" s="128"/>
+      <c r="I88" s="127"/>
+      <c r="J88" s="127"/>
+      <c r="K88" s="127"/>
+      <c r="L88" s="127"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B89" s="126"/>
+      <c r="C89" s="126"/>
+      <c r="D89" s="127"/>
+      <c r="E89" s="127"/>
+      <c r="F89" s="127"/>
+      <c r="G89" s="127"/>
+      <c r="H89" s="128"/>
+      <c r="I89" s="127"/>
+      <c r="J89" s="127"/>
+      <c r="K89" s="127"/>
+      <c r="L89" s="127"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B90" s="126"/>
+      <c r="C90" s="126"/>
+      <c r="D90" s="127"/>
+      <c r="E90" s="127"/>
+      <c r="F90" s="127"/>
+      <c r="G90" s="127"/>
+      <c r="H90" s="128"/>
+      <c r="I90" s="127"/>
+      <c r="J90" s="127"/>
+      <c r="K90" s="127"/>
+      <c r="L90" s="127"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B91" s="126"/>
+      <c r="C91" s="126"/>
+      <c r="D91" s="127"/>
+      <c r="E91" s="127"/>
+      <c r="F91" s="127"/>
+      <c r="G91" s="127"/>
+      <c r="H91" s="128"/>
+      <c r="I91" s="127"/>
+      <c r="J91" s="127"/>
+      <c r="K91" s="127"/>
+      <c r="L91" s="127"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B92" s="126"/>
+      <c r="C92" s="126"/>
+      <c r="D92" s="127"/>
+      <c r="E92" s="127"/>
+      <c r="F92" s="127"/>
+      <c r="G92" s="127"/>
+      <c r="H92" s="128"/>
+      <c r="I92" s="127"/>
+      <c r="J92" s="127"/>
+      <c r="K92" s="127"/>
+      <c r="L92" s="127"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B93" s="126"/>
+      <c r="C93" s="126"/>
+      <c r="D93" s="127"/>
+      <c r="E93" s="127"/>
+      <c r="F93" s="127"/>
+      <c r="G93" s="127"/>
+      <c r="H93" s="128"/>
+      <c r="I93" s="127"/>
+      <c r="J93" s="127"/>
+      <c r="K93" s="127"/>
+      <c r="L93" s="127"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B94" s="126"/>
+      <c r="C94" s="126"/>
+      <c r="D94" s="127"/>
+      <c r="E94" s="127"/>
+      <c r="F94" s="127"/>
+      <c r="G94" s="127"/>
+      <c r="H94" s="128"/>
+      <c r="I94" s="127"/>
+      <c r="J94" s="127"/>
+      <c r="K94" s="127"/>
+      <c r="L94" s="127"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B95" s="126"/>
+      <c r="C95" s="126"/>
+      <c r="D95" s="127"/>
+      <c r="E95" s="127"/>
+      <c r="F95" s="127"/>
+      <c r="G95" s="127"/>
+      <c r="H95" s="128"/>
+      <c r="I95" s="127"/>
+      <c r="J95" s="127"/>
+      <c r="K95" s="127"/>
+      <c r="L95" s="127"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B96" s="126"/>
+      <c r="C96" s="126"/>
+      <c r="D96" s="127"/>
+      <c r="E96" s="127"/>
+      <c r="F96" s="127"/>
+      <c r="G96" s="127"/>
+      <c r="H96" s="128"/>
+      <c r="I96" s="127"/>
+      <c r="J96" s="127"/>
+      <c r="K96" s="127"/>
+      <c r="L96" s="127"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B97" s="126"/>
+      <c r="C97" s="126"/>
+      <c r="D97" s="127"/>
+      <c r="E97" s="127"/>
+      <c r="F97" s="127"/>
+      <c r="G97" s="127"/>
+      <c r="H97" s="128"/>
+      <c r="I97" s="127"/>
+      <c r="J97" s="127"/>
+      <c r="K97" s="127"/>
+      <c r="L97" s="127"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B98" s="126"/>
+      <c r="C98" s="126"/>
+      <c r="D98" s="127"/>
+      <c r="E98" s="127"/>
+      <c r="F98" s="127"/>
+      <c r="G98" s="127"/>
+      <c r="H98" s="128"/>
+      <c r="I98" s="127"/>
+      <c r="J98" s="127"/>
+      <c r="K98" s="127"/>
+      <c r="L98" s="127"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B99" s="126"/>
+      <c r="C99" s="126"/>
+      <c r="D99" s="127"/>
+      <c r="E99" s="127"/>
+      <c r="F99" s="127"/>
+      <c r="G99" s="127"/>
+      <c r="H99" s="128"/>
+      <c r="I99" s="127"/>
+      <c r="J99" s="127"/>
+      <c r="K99" s="127"/>
+      <c r="L99" s="127"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B100" s="126"/>
+      <c r="C100" s="126"/>
+      <c r="D100" s="127"/>
+      <c r="E100" s="127"/>
+      <c r="F100" s="127"/>
+      <c r="G100" s="127"/>
+      <c r="H100" s="128"/>
+      <c r="I100" s="127"/>
+      <c r="J100" s="127"/>
+      <c r="K100" s="127"/>
+      <c r="L100" s="127"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B101" s="126"/>
+      <c r="C101" s="126"/>
+      <c r="D101" s="127"/>
+      <c r="E101" s="127"/>
+      <c r="F101" s="127"/>
+      <c r="G101" s="127"/>
+      <c r="H101" s="128"/>
+      <c r="I101" s="127"/>
+      <c r="J101" s="127"/>
+      <c r="K101" s="127"/>
+      <c r="L101" s="127"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B102" s="126"/>
+      <c r="C102" s="126"/>
+      <c r="D102" s="127"/>
+      <c r="E102" s="127"/>
+      <c r="F102" s="127"/>
+      <c r="G102" s="127"/>
+      <c r="H102" s="128"/>
+      <c r="I102" s="127"/>
+      <c r="J102" s="127"/>
+      <c r="K102" s="127"/>
+      <c r="L102" s="127"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B103" s="126"/>
+      <c r="C103" s="126"/>
+      <c r="D103" s="127"/>
+      <c r="E103" s="127"/>
+      <c r="F103" s="127"/>
+      <c r="G103" s="127"/>
+      <c r="H103" s="128"/>
+      <c r="I103" s="127"/>
+      <c r="J103" s="127"/>
+      <c r="K103" s="127"/>
+      <c r="L103" s="127"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B104" s="126"/>
+      <c r="C104" s="126"/>
+      <c r="D104" s="127"/>
+      <c r="E104" s="127"/>
+      <c r="F104" s="127"/>
+      <c r="G104" s="127"/>
+      <c r="H104" s="128"/>
+      <c r="I104" s="127"/>
+      <c r="J104" s="127"/>
+      <c r="K104" s="127"/>
+      <c r="L104" s="127"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B105" s="126"/>
+      <c r="C105" s="126"/>
+      <c r="D105" s="127"/>
+      <c r="E105" s="127"/>
+      <c r="F105" s="127"/>
+      <c r="G105" s="127"/>
+      <c r="H105" s="128"/>
+      <c r="I105" s="127"/>
+      <c r="J105" s="127"/>
+      <c r="K105" s="127"/>
+      <c r="L105" s="127"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B106" s="126"/>
+      <c r="C106" s="126"/>
+      <c r="D106" s="127"/>
+      <c r="E106" s="127"/>
+      <c r="F106" s="127"/>
+      <c r="G106" s="127"/>
+      <c r="H106" s="128"/>
+      <c r="I106" s="127"/>
+      <c r="J106" s="127"/>
+      <c r="K106" s="127"/>
+      <c r="L106" s="127"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B107" s="126"/>
+      <c r="C107" s="126"/>
+      <c r="D107" s="127"/>
+      <c r="E107" s="127"/>
+      <c r="F107" s="127"/>
+      <c r="G107" s="127"/>
+      <c r="H107" s="128"/>
+      <c r="I107" s="127"/>
+      <c r="J107" s="127"/>
+      <c r="K107" s="127"/>
+      <c r="L107" s="127"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B108" s="126"/>
+      <c r="C108" s="126"/>
+      <c r="D108" s="127"/>
+      <c r="E108" s="127"/>
+      <c r="F108" s="127"/>
+      <c r="G108" s="127"/>
+      <c r="H108" s="128"/>
+      <c r="I108" s="127"/>
+      <c r="J108" s="127"/>
+      <c r="K108" s="127"/>
+      <c r="L108" s="127"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B109" s="126"/>
+      <c r="C109" s="126"/>
+      <c r="D109" s="127"/>
+      <c r="E109" s="127"/>
+      <c r="F109" s="127"/>
+      <c r="G109" s="127"/>
+      <c r="H109" s="128"/>
+      <c r="I109" s="127"/>
+      <c r="J109" s="127"/>
+      <c r="K109" s="127"/>
+      <c r="L109" s="127"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B110" s="126"/>
+      <c r="C110" s="126"/>
+      <c r="D110" s="127"/>
+      <c r="E110" s="127"/>
+      <c r="F110" s="127"/>
+      <c r="G110" s="127"/>
+      <c r="H110" s="128"/>
+      <c r="I110" s="127"/>
+      <c r="J110" s="127"/>
+      <c r="K110" s="127"/>
+      <c r="L110" s="127"/>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B111" s="126"/>
+      <c r="C111" s="126"/>
+      <c r="D111" s="127"/>
+      <c r="E111" s="127"/>
+      <c r="F111" s="127"/>
+      <c r="G111" s="127"/>
+      <c r="H111" s="128"/>
+      <c r="I111" s="127"/>
+      <c r="J111" s="127"/>
+      <c r="K111" s="127"/>
+      <c r="L111" s="127"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B112" s="126"/>
+      <c r="C112" s="126"/>
+      <c r="D112" s="127"/>
+      <c r="E112" s="127"/>
+      <c r="F112" s="127"/>
+      <c r="G112" s="127"/>
+      <c r="H112" s="128"/>
+      <c r="I112" s="127"/>
+      <c r="J112" s="127"/>
+      <c r="K112" s="127"/>
+      <c r="L112" s="127"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B113" s="126"/>
+      <c r="C113" s="126"/>
+      <c r="D113" s="127"/>
+      <c r="E113" s="127"/>
+      <c r="F113" s="127"/>
+      <c r="G113" s="127"/>
+      <c r="H113" s="128"/>
+      <c r="I113" s="127"/>
+      <c r="J113" s="127"/>
+      <c r="K113" s="127"/>
+      <c r="L113" s="127"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B114" s="126"/>
+      <c r="C114" s="126"/>
+      <c r="D114" s="127"/>
+      <c r="E114" s="127"/>
+      <c r="F114" s="127"/>
+      <c r="G114" s="127"/>
+      <c r="H114" s="128"/>
+      <c r="I114" s="127"/>
+      <c r="J114" s="127"/>
+      <c r="K114" s="127"/>
+      <c r="L114" s="127"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B115" s="126"/>
+      <c r="C115" s="126"/>
+      <c r="D115" s="127"/>
+      <c r="E115" s="127"/>
+      <c r="F115" s="127"/>
+      <c r="G115" s="127"/>
+      <c r="H115" s="128"/>
+      <c r="I115" s="127"/>
+      <c r="J115" s="127"/>
+      <c r="K115" s="127"/>
+      <c r="L115" s="127"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B116" s="126"/>
+      <c r="C116" s="126"/>
+      <c r="D116" s="127"/>
+      <c r="E116" s="127"/>
+      <c r="F116" s="127"/>
+      <c r="G116" s="127"/>
+      <c r="H116" s="128"/>
+      <c r="I116" s="127"/>
+      <c r="J116" s="127"/>
+      <c r="K116" s="127"/>
+      <c r="L116" s="127"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B117" s="126"/>
+      <c r="C117" s="126"/>
+      <c r="D117" s="127"/>
+      <c r="E117" s="127"/>
+      <c r="F117" s="127"/>
+      <c r="G117" s="127"/>
+      <c r="H117" s="128"/>
+      <c r="I117" s="127"/>
+      <c r="J117" s="127"/>
+      <c r="K117" s="127"/>
+      <c r="L117" s="127"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B118" s="126"/>
+      <c r="C118" s="126"/>
+      <c r="D118" s="127"/>
+      <c r="E118" s="127"/>
+      <c r="F118" s="127"/>
+      <c r="G118" s="127"/>
+      <c r="H118" s="128"/>
+      <c r="I118" s="127"/>
+      <c r="J118" s="127"/>
+      <c r="K118" s="127"/>
+      <c r="L118" s="127"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B119" s="126"/>
+      <c r="C119" s="126"/>
+      <c r="D119" s="127"/>
+      <c r="E119" s="127"/>
+      <c r="F119" s="127"/>
+      <c r="G119" s="127"/>
+      <c r="H119" s="128"/>
+      <c r="I119" s="127"/>
+      <c r="J119" s="127"/>
+      <c r="K119" s="127"/>
+      <c r="L119" s="127"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B120" s="126"/>
+      <c r="C120" s="126"/>
+      <c r="D120" s="127"/>
+      <c r="E120" s="127"/>
+      <c r="F120" s="127"/>
+      <c r="G120" s="127"/>
+      <c r="H120" s="128"/>
+      <c r="I120" s="127"/>
+      <c r="J120" s="127"/>
+      <c r="K120" s="127"/>
+      <c r="L120" s="127"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B121" s="126"/>
+      <c r="C121" s="126"/>
+      <c r="D121" s="127"/>
+      <c r="E121" s="127"/>
+      <c r="F121" s="127"/>
+      <c r="G121" s="127"/>
+      <c r="H121" s="128"/>
+      <c r="I121" s="127"/>
+      <c r="J121" s="127"/>
+      <c r="K121" s="127"/>
+      <c r="L121" s="127"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B122" s="126"/>
+      <c r="C122" s="126"/>
+      <c r="D122" s="127"/>
+      <c r="E122" s="127"/>
+      <c r="F122" s="127"/>
+      <c r="G122" s="127"/>
+      <c r="H122" s="128"/>
+      <c r="I122" s="127"/>
+      <c r="J122" s="127"/>
+      <c r="K122" s="127"/>
+      <c r="L122" s="127"/>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B123" s="126"/>
+      <c r="C123" s="126"/>
+      <c r="D123" s="127"/>
+      <c r="E123" s="127"/>
+      <c r="F123" s="127"/>
+      <c r="G123" s="127"/>
+      <c r="H123" s="128"/>
+      <c r="I123" s="127"/>
+      <c r="J123" s="127"/>
+      <c r="K123" s="127"/>
+      <c r="L123" s="127"/>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B124" s="126"/>
+      <c r="C124" s="126"/>
+      <c r="D124" s="127"/>
+      <c r="E124" s="127"/>
+      <c r="F124" s="127"/>
+      <c r="G124" s="127"/>
+      <c r="H124" s="128"/>
+      <c r="I124" s="127"/>
+      <c r="J124" s="127"/>
+      <c r="K124" s="127"/>
+      <c r="L124" s="127"/>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B125" s="126"/>
+      <c r="C125" s="126"/>
+      <c r="D125" s="127"/>
+      <c r="E125" s="127"/>
+      <c r="F125" s="127"/>
+      <c r="G125" s="127"/>
+      <c r="H125" s="128"/>
+      <c r="I125" s="127"/>
+      <c r="J125" s="127"/>
+      <c r="K125" s="127"/>
+      <c r="L125" s="127"/>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B126" s="126"/>
+      <c r="C126" s="126"/>
+      <c r="D126" s="127"/>
+      <c r="E126" s="127"/>
+      <c r="F126" s="127"/>
+      <c r="G126" s="127"/>
+      <c r="H126" s="128"/>
+      <c r="I126" s="127"/>
+      <c r="J126" s="127"/>
+      <c r="K126" s="127"/>
+      <c r="L126" s="127"/>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B127" s="126"/>
+      <c r="C127" s="126"/>
+      <c r="D127" s="127"/>
+      <c r="E127" s="127"/>
+      <c r="F127" s="127"/>
+      <c r="G127" s="127"/>
+      <c r="H127" s="128"/>
+      <c r="I127" s="127"/>
+      <c r="J127" s="127"/>
+      <c r="K127" s="127"/>
+      <c r="L127" s="127"/>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B128" s="126"/>
+      <c r="C128" s="126"/>
+      <c r="D128" s="127"/>
+      <c r="E128" s="127"/>
+      <c r="F128" s="127"/>
+      <c r="G128" s="127"/>
+      <c r="H128" s="128"/>
+      <c r="I128" s="127"/>
+      <c r="J128" s="127"/>
+      <c r="K128" s="127"/>
+      <c r="L128" s="127"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B129" s="126"/>
+      <c r="C129" s="126"/>
+      <c r="D129" s="127"/>
+      <c r="E129" s="127"/>
+      <c r="F129" s="127"/>
+      <c r="G129" s="127"/>
+      <c r="H129" s="128"/>
+      <c r="I129" s="127"/>
+      <c r="J129" s="127"/>
+      <c r="K129" s="127"/>
+      <c r="L129" s="127"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B130" s="126"/>
+      <c r="C130" s="126"/>
+      <c r="D130" s="127"/>
+      <c r="E130" s="127"/>
+      <c r="F130" s="127"/>
+      <c r="G130" s="127"/>
+      <c r="H130" s="128"/>
+      <c r="I130" s="127"/>
+      <c r="J130" s="127"/>
+      <c r="K130" s="127"/>
+      <c r="L130" s="127"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B131" s="126"/>
+      <c r="C131" s="126"/>
+      <c r="D131" s="127"/>
+      <c r="E131" s="127"/>
+      <c r="F131" s="127"/>
+      <c r="G131" s="127"/>
+      <c r="H131" s="128"/>
+      <c r="I131" s="127"/>
+      <c r="J131" s="127"/>
+      <c r="K131" s="127"/>
+      <c r="L131" s="127"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B132" s="126"/>
+      <c r="C132" s="126"/>
+      <c r="D132" s="127"/>
+      <c r="E132" s="127"/>
+      <c r="F132" s="127"/>
+      <c r="G132" s="127"/>
+      <c r="H132" s="128"/>
+      <c r="I132" s="127"/>
+      <c r="J132" s="127"/>
+      <c r="K132" s="127"/>
+      <c r="L132" s="127"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B133" s="126"/>
+      <c r="C133" s="126"/>
+      <c r="D133" s="127"/>
+      <c r="E133" s="127"/>
+      <c r="F133" s="127"/>
+      <c r="G133" s="127"/>
+      <c r="H133" s="128"/>
+      <c r="I133" s="127"/>
+      <c r="J133" s="127"/>
+      <c r="K133" s="127"/>
+      <c r="L133" s="127"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B134" s="126"/>
+      <c r="C134" s="126"/>
+      <c r="D134" s="127"/>
+      <c r="E134" s="127"/>
+      <c r="F134" s="127"/>
+      <c r="G134" s="127"/>
+      <c r="H134" s="128"/>
+      <c r="I134" s="127"/>
+      <c r="J134" s="127"/>
+      <c r="K134" s="127"/>
+      <c r="L134" s="127"/>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B135" s="126"/>
+      <c r="C135" s="126"/>
+      <c r="D135" s="127"/>
+      <c r="E135" s="127"/>
+      <c r="F135" s="127"/>
+      <c r="G135" s="127"/>
+      <c r="H135" s="128"/>
+      <c r="I135" s="127"/>
+      <c r="J135" s="127"/>
+      <c r="K135" s="127"/>
+      <c r="L135" s="127"/>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B136" s="126"/>
+      <c r="C136" s="126"/>
+      <c r="D136" s="127"/>
+      <c r="E136" s="127"/>
+      <c r="F136" s="127"/>
+      <c r="G136" s="127"/>
+      <c r="H136" s="128"/>
+      <c r="I136" s="127"/>
+      <c r="J136" s="127"/>
+      <c r="K136" s="127"/>
+      <c r="L136" s="127"/>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B137" s="126"/>
+      <c r="C137" s="126"/>
+      <c r="D137" s="127"/>
+      <c r="E137" s="127"/>
+      <c r="F137" s="127"/>
+      <c r="G137" s="127"/>
+      <c r="H137" s="128"/>
+      <c r="I137" s="127"/>
+      <c r="J137" s="127"/>
+      <c r="K137" s="127"/>
+      <c r="L137" s="127"/>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B138" s="126"/>
+      <c r="C138" s="126"/>
+      <c r="D138" s="127"/>
+      <c r="E138" s="127"/>
+      <c r="F138" s="127"/>
+      <c r="G138" s="127"/>
+      <c r="H138" s="128"/>
+      <c r="I138" s="127"/>
+      <c r="J138" s="127"/>
+      <c r="K138" s="127"/>
+      <c r="L138" s="127"/>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B139" s="126"/>
+      <c r="C139" s="126"/>
+      <c r="D139" s="127"/>
+      <c r="E139" s="127"/>
+      <c r="F139" s="127"/>
+      <c r="G139" s="127"/>
+      <c r="H139" s="128"/>
+      <c r="I139" s="127"/>
+      <c r="J139" s="127"/>
+      <c r="K139" s="127"/>
+      <c r="L139" s="127"/>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B140" s="126"/>
+      <c r="C140" s="126"/>
+      <c r="D140" s="127"/>
+      <c r="E140" s="127"/>
+      <c r="F140" s="127"/>
+      <c r="G140" s="127"/>
+      <c r="H140" s="128"/>
+      <c r="I140" s="127"/>
+      <c r="J140" s="127"/>
+      <c r="K140" s="127"/>
+      <c r="L140" s="127"/>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B141" s="126"/>
+      <c r="C141" s="126"/>
+      <c r="D141" s="127"/>
+      <c r="E141" s="127"/>
+      <c r="F141" s="127"/>
+      <c r="G141" s="127"/>
+      <c r="H141" s="128"/>
+      <c r="I141" s="127"/>
+      <c r="J141" s="127"/>
+      <c r="K141" s="127"/>
+      <c r="L141" s="127"/>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B142" s="126"/>
+      <c r="C142" s="126"/>
+      <c r="D142" s="127"/>
+      <c r="E142" s="127"/>
+      <c r="F142" s="127"/>
+      <c r="G142" s="127"/>
+      <c r="H142" s="128"/>
+      <c r="I142" s="127"/>
+      <c r="J142" s="127"/>
+      <c r="K142" s="127"/>
+      <c r="L142" s="127"/>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B143" s="126"/>
+      <c r="C143" s="126"/>
+      <c r="D143" s="127"/>
+      <c r="E143" s="127"/>
+      <c r="F143" s="127"/>
+      <c r="G143" s="127"/>
+      <c r="H143" s="128"/>
+      <c r="I143" s="127"/>
+      <c r="J143" s="127"/>
+      <c r="K143" s="127"/>
+      <c r="L143" s="127"/>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B144" s="126"/>
+      <c r="C144" s="126"/>
+      <c r="D144" s="127"/>
+      <c r="E144" s="127"/>
+      <c r="F144" s="127"/>
+      <c r="G144" s="127"/>
+      <c r="H144" s="128"/>
+      <c r="I144" s="127"/>
+      <c r="J144" s="127"/>
+      <c r="K144" s="127"/>
+      <c r="L144" s="127"/>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B145" s="126"/>
+      <c r="C145" s="126"/>
+      <c r="D145" s="127"/>
+      <c r="E145" s="127"/>
+      <c r="F145" s="127"/>
+      <c r="G145" s="127"/>
+      <c r="H145" s="128"/>
+      <c r="I145" s="127"/>
+      <c r="J145" s="127"/>
+      <c r="K145" s="127"/>
+      <c r="L145" s="127"/>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B146" s="126"/>
+      <c r="C146" s="126"/>
+      <c r="D146" s="127"/>
+      <c r="E146" s="127"/>
+      <c r="F146" s="127"/>
+      <c r="G146" s="127"/>
+      <c r="H146" s="128"/>
+      <c r="I146" s="127"/>
+      <c r="J146" s="127"/>
+      <c r="K146" s="127"/>
+      <c r="L146" s="127"/>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B147" s="126"/>
+      <c r="C147" s="126"/>
+      <c r="D147" s="127"/>
+      <c r="E147" s="127"/>
+      <c r="F147" s="127"/>
+      <c r="G147" s="127"/>
+      <c r="H147" s="128"/>
+      <c r="I147" s="127"/>
+      <c r="J147" s="127"/>
+      <c r="K147" s="127"/>
+      <c r="L147" s="127"/>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B148" s="126"/>
+      <c r="C148" s="126"/>
+      <c r="D148" s="127"/>
+      <c r="E148" s="127"/>
+      <c r="F148" s="127"/>
+      <c r="G148" s="127"/>
+      <c r="H148" s="128"/>
+      <c r="I148" s="127"/>
+      <c r="J148" s="127"/>
+      <c r="K148" s="127"/>
+      <c r="L148" s="127"/>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B149" s="126"/>
+      <c r="C149" s="126"/>
+      <c r="D149" s="127"/>
+      <c r="E149" s="127"/>
+      <c r="F149" s="127"/>
+      <c r="G149" s="127"/>
+      <c r="H149" s="128"/>
+      <c r="I149" s="127"/>
+      <c r="J149" s="127"/>
+      <c r="K149" s="127"/>
+      <c r="L149" s="127"/>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B150" s="126"/>
+      <c r="C150" s="126"/>
+      <c r="D150" s="127"/>
+      <c r="E150" s="127"/>
+      <c r="F150" s="127"/>
+      <c r="G150" s="127"/>
+      <c r="H150" s="128"/>
+      <c r="I150" s="127"/>
+      <c r="J150" s="127"/>
+      <c r="K150" s="127"/>
+      <c r="L150" s="127"/>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B151" s="126"/>
+      <c r="C151" s="126"/>
+      <c r="D151" s="127"/>
+      <c r="E151" s="127"/>
+      <c r="F151" s="127"/>
+      <c r="G151" s="127"/>
+      <c r="H151" s="128"/>
+      <c r="I151" s="127"/>
+      <c r="J151" s="127"/>
+      <c r="K151" s="127"/>
+      <c r="L151" s="127"/>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B152" s="126"/>
+      <c r="C152" s="126"/>
+      <c r="D152" s="127"/>
+      <c r="E152" s="127"/>
+      <c r="F152" s="127"/>
+      <c r="G152" s="127"/>
+      <c r="H152" s="128"/>
+      <c r="I152" s="127"/>
+      <c r="J152" s="127"/>
+      <c r="K152" s="127"/>
+      <c r="L152" s="127"/>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B153" s="126"/>
+      <c r="C153" s="126"/>
+      <c r="D153" s="127"/>
+      <c r="E153" s="127"/>
+      <c r="F153" s="127"/>
+      <c r="G153" s="127"/>
+      <c r="H153" s="128"/>
+      <c r="I153" s="127"/>
+      <c r="J153" s="127"/>
+      <c r="K153" s="127"/>
+      <c r="L153" s="127"/>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B154" s="126"/>
+      <c r="C154" s="126"/>
+      <c r="D154" s="127"/>
+      <c r="E154" s="127"/>
+      <c r="F154" s="127"/>
+      <c r="G154" s="127"/>
+      <c r="H154" s="128"/>
+      <c r="I154" s="127"/>
+      <c r="J154" s="127"/>
+      <c r="K154" s="127"/>
+      <c r="L154" s="127"/>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B155" s="126"/>
+      <c r="C155" s="126"/>
+      <c r="D155" s="127"/>
+      <c r="E155" s="127"/>
+      <c r="F155" s="127"/>
+      <c r="G155" s="127"/>
+      <c r="H155" s="128"/>
+      <c r="I155" s="127"/>
+      <c r="J155" s="127"/>
+      <c r="K155" s="127"/>
+      <c r="L155" s="127"/>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B156" s="126"/>
+      <c r="C156" s="126"/>
+      <c r="D156" s="127"/>
+      <c r="E156" s="127"/>
+      <c r="F156" s="127"/>
+      <c r="G156" s="127"/>
+      <c r="H156" s="128"/>
+      <c r="I156" s="127"/>
+      <c r="J156" s="127"/>
+      <c r="K156" s="127"/>
+      <c r="L156" s="127"/>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B157" s="126"/>
+      <c r="C157" s="126"/>
+      <c r="D157" s="127"/>
+      <c r="E157" s="127"/>
+      <c r="F157" s="127"/>
+      <c r="G157" s="127"/>
+      <c r="H157" s="128"/>
+      <c r="I157" s="127"/>
+      <c r="J157" s="127"/>
+      <c r="K157" s="127"/>
+      <c r="L157" s="127"/>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B158" s="126"/>
+      <c r="C158" s="126"/>
+      <c r="D158" s="127"/>
+      <c r="E158" s="127"/>
+      <c r="F158" s="127"/>
+      <c r="G158" s="127"/>
+      <c r="H158" s="128"/>
+      <c r="I158" s="127"/>
+      <c r="J158" s="127"/>
+      <c r="K158" s="127"/>
+      <c r="L158" s="127"/>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B159" s="126"/>
+      <c r="C159" s="126"/>
+      <c r="D159" s="127"/>
+      <c r="E159" s="127"/>
+      <c r="F159" s="127"/>
+      <c r="G159" s="127"/>
+      <c r="H159" s="128"/>
+      <c r="I159" s="127"/>
+      <c r="J159" s="127"/>
+      <c r="K159" s="127"/>
+      <c r="L159" s="127"/>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B160" s="126"/>
+      <c r="C160" s="126"/>
+      <c r="D160" s="127"/>
+      <c r="E160" s="127"/>
+      <c r="F160" s="127"/>
+      <c r="G160" s="127"/>
+      <c r="H160" s="128"/>
+      <c r="I160" s="127"/>
+      <c r="J160" s="127"/>
+      <c r="K160" s="127"/>
+      <c r="L160" s="127"/>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B161" s="126"/>
+      <c r="C161" s="126"/>
+      <c r="D161" s="127"/>
+      <c r="E161" s="127"/>
+      <c r="F161" s="127"/>
+      <c r="G161" s="127"/>
+      <c r="H161" s="128"/>
+      <c r="I161" s="127"/>
+      <c r="J161" s="127"/>
+      <c r="K161" s="127"/>
+      <c r="L161" s="127"/>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B162" s="126"/>
+      <c r="C162" s="126"/>
+      <c r="D162" s="127"/>
+      <c r="E162" s="127"/>
+      <c r="F162" s="127"/>
+      <c r="G162" s="127"/>
+      <c r="H162" s="128"/>
+      <c r="I162" s="127"/>
+      <c r="J162" s="127"/>
+      <c r="K162" s="127"/>
+      <c r="L162" s="127"/>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B163" s="126"/>
+      <c r="C163" s="126"/>
+      <c r="D163" s="127"/>
+      <c r="E163" s="127"/>
+      <c r="F163" s="127"/>
+      <c r="G163" s="127"/>
+      <c r="H163" s="128"/>
+      <c r="I163" s="127"/>
+      <c r="J163" s="127"/>
+      <c r="K163" s="127"/>
+      <c r="L163" s="127"/>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B164" s="126"/>
+      <c r="C164" s="126"/>
+      <c r="D164" s="127"/>
+      <c r="E164" s="127"/>
+      <c r="F164" s="127"/>
+      <c r="G164" s="127"/>
+      <c r="H164" s="128"/>
+      <c r="I164" s="127"/>
+      <c r="J164" s="127"/>
+      <c r="K164" s="127"/>
+      <c r="L164" s="127"/>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B165" s="126"/>
+      <c r="C165" s="126"/>
+      <c r="D165" s="127"/>
+      <c r="E165" s="127"/>
+      <c r="F165" s="127"/>
+      <c r="G165" s="127"/>
+      <c r="H165" s="128"/>
+      <c r="I165" s="127"/>
+      <c r="J165" s="127"/>
+      <c r="K165" s="127"/>
+      <c r="L165" s="127"/>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B166" s="126"/>

--- a/build/output_place/12월_키워드보고서_spogym011_naver.xlsx
+++ b/build/output_place/12월_키워드보고서_spogym011_naver.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="222">
   <si>
     <t>검색어 평균/합계 비교</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -813,7 +813,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="12">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
@@ -824,8 +824,10 @@
     <numFmt numFmtId="181" formatCode="[Red]\▲#,##0.00%;[Blue]\▼#,##0.00%;"/>
     <numFmt numFmtId="182" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="183" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="0.0"/>
+    <numFmt numFmtId="185" formatCode="#,##0.##"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1117,6 +1119,11 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1423,7 +1430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1894,6 +1901,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="10" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="184" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="185" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="백분율" xfId="4" builtinId="5"/>
@@ -11092,7 +11103,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9772C4C9-E365-4117-8B21-32D95E2AA599}">
-  <dimension ref="A1:AW98"/>
+  <dimension ref="A1:AW86"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
@@ -24633,1782 +24644,6 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A87" s="103" t="s">
-        <v>203</v>
-      </c>
-      <c r="B87" s="81">
-        <v>45651</v>
-      </c>
-      <c r="C87" s="81" t="str">
-        <f t="shared" si="88"/>
-        <v>수</v>
-      </c>
-      <c r="D87" s="52">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="52">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="F87" s="55">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="G87" s="52">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="H87" s="52">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="I87" s="52">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="52">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="K87" s="82">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L87" s="52">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="M87" s="83">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="O87" s="81">
-        <f t="shared" si="104"/>
-        <v>45651</v>
-      </c>
-      <c r="P87" s="81" t="str">
-        <f t="shared" si="104"/>
-        <v>수</v>
-      </c>
-      <c r="Q87" s="52">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="R87" s="52">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="S87" s="55">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="T87" s="52">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="U87" s="52">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="V87" s="52">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="W87" s="52">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="X87" s="82">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="Y87" s="52">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="Z87" s="82">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="AB87" s="81">
-        <f t="shared" si="105"/>
-        <v>45651</v>
-      </c>
-      <c r="AC87" s="81" t="str">
-        <f t="shared" si="105"/>
-        <v>수</v>
-      </c>
-      <c r="AD87" s="52">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="AE87" s="52">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="AF87" s="55">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="AG87" s="52">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AH87" s="52">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="AI87" s="52">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="AJ87" s="52">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="AK87" s="82">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="AL87" s="52">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="AM87" s="82">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A88" s="103" t="s">
-        <v>204</v>
-      </c>
-      <c r="B88" s="81">
-        <v>45652</v>
-      </c>
-      <c r="C88" s="81" t="str">
-        <f t="shared" si="88"/>
-        <v>목</v>
-      </c>
-      <c r="D88" s="52">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="52">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="F88" s="55">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="52">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="H88" s="52">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="I88" s="52">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="52">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="K88" s="82">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L88" s="52">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="M88" s="83">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="O88" s="81">
-        <f t="shared" si="104"/>
-        <v>45652</v>
-      </c>
-      <c r="P88" s="81" t="str">
-        <f t="shared" si="104"/>
-        <v>목</v>
-      </c>
-      <c r="Q88" s="52">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="R88" s="52">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="S88" s="55">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="T88" s="52">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="U88" s="52">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="V88" s="52">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="W88" s="52">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="X88" s="82">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="Y88" s="52">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="Z88" s="82">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="AB88" s="81">
-        <f t="shared" si="105"/>
-        <v>45652</v>
-      </c>
-      <c r="AC88" s="81" t="str">
-        <f t="shared" si="105"/>
-        <v>목</v>
-      </c>
-      <c r="AD88" s="52">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="AE88" s="52">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="AF88" s="55">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="AG88" s="52">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AH88" s="52">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="AI88" s="52">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="AJ88" s="52">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="AK88" s="82">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="AL88" s="52">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="AM88" s="82">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A89" s="103" t="s">
-        <v>205</v>
-      </c>
-      <c r="B89" s="81">
-        <v>45653</v>
-      </c>
-      <c r="C89" s="81" t="str">
-        <f t="shared" si="88"/>
-        <v>금</v>
-      </c>
-      <c r="D89" s="52">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="52">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="F89" s="55">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="52">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="H89" s="52">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="I89" s="52">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="52">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="K89" s="82">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L89" s="52">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="M89" s="83">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="O89" s="81">
-        <f t="shared" si="104"/>
-        <v>45653</v>
-      </c>
-      <c r="P89" s="81" t="str">
-        <f t="shared" si="104"/>
-        <v>금</v>
-      </c>
-      <c r="Q89" s="52">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="R89" s="52">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="S89" s="55">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="T89" s="52">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="U89" s="52">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="V89" s="52">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="W89" s="52">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="X89" s="82">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="Y89" s="52">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="Z89" s="82">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="AB89" s="81">
-        <f t="shared" si="105"/>
-        <v>45653</v>
-      </c>
-      <c r="AC89" s="81" t="str">
-        <f t="shared" si="105"/>
-        <v>금</v>
-      </c>
-      <c r="AD89" s="52">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="AE89" s="52">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="AF89" s="55">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="AG89" s="52">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AH89" s="52">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="AI89" s="52">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="AJ89" s="52">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="AK89" s="82">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="AL89" s="52">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="AM89" s="82">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A90" s="103" t="s">
-        <v>206</v>
-      </c>
-      <c r="B90" s="81">
-        <v>45654</v>
-      </c>
-      <c r="C90" s="81" t="str">
-        <f t="shared" si="88"/>
-        <v>토</v>
-      </c>
-      <c r="D90" s="52">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="52">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="F90" s="55">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="52">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="H90" s="52">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="I90" s="52">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="52">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="K90" s="82">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L90" s="52">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="M90" s="83">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="O90" s="81">
-        <f t="shared" si="104"/>
-        <v>45654</v>
-      </c>
-      <c r="P90" s="81" t="str">
-        <f t="shared" si="104"/>
-        <v>토</v>
-      </c>
-      <c r="Q90" s="52">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="R90" s="52">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="S90" s="55">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="T90" s="52">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="U90" s="52">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="V90" s="52">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="W90" s="52">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="X90" s="82">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="Y90" s="52">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="Z90" s="82">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="AB90" s="81">
-        <f t="shared" si="105"/>
-        <v>45654</v>
-      </c>
-      <c r="AC90" s="81" t="str">
-        <f t="shared" si="105"/>
-        <v>토</v>
-      </c>
-      <c r="AD90" s="52">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="AE90" s="52">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="AF90" s="55">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="AG90" s="52">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AH90" s="52">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="AI90" s="52">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="AJ90" s="52">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="AK90" s="82">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="AL90" s="52">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="AM90" s="82">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A91" s="103" t="s">
-        <v>207</v>
-      </c>
-      <c r="B91" s="81">
-        <v>45655</v>
-      </c>
-      <c r="C91" s="81" t="str">
-        <f t="shared" si="88"/>
-        <v>일</v>
-      </c>
-      <c r="D91" s="52">
-        <f>Q91+AD91</f>
-        <v>0</v>
-      </c>
-      <c r="E91" s="52">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="F91" s="55">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="52">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="H91" s="52">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="I91" s="52">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="52">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="K91" s="82">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L91" s="52">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="M91" s="83">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="O91" s="81">
-        <f t="shared" si="104"/>
-        <v>45655</v>
-      </c>
-      <c r="P91" s="81" t="str">
-        <f t="shared" si="104"/>
-        <v>일</v>
-      </c>
-      <c r="Q91" s="52">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="R91" s="52">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="S91" s="55">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="T91" s="52">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="U91" s="52">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="V91" s="52">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="W91" s="52">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="X91" s="82">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="Y91" s="52">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="Z91" s="82">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="AB91" s="81">
-        <f t="shared" si="105"/>
-        <v>45655</v>
-      </c>
-      <c r="AC91" s="81" t="str">
-        <f t="shared" si="105"/>
-        <v>일</v>
-      </c>
-      <c r="AD91" s="52">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="AE91" s="52">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="AF91" s="55">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="AG91" s="52">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AH91" s="52">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="AI91" s="52">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="AJ91" s="52">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="AK91" s="82">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="AL91" s="52">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="AM91" s="82">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A92" s="103" t="s">
-        <v>208</v>
-      </c>
-      <c r="B92" s="81">
-        <v>45656</v>
-      </c>
-      <c r="C92" s="81" t="str">
-        <f t="shared" si="88"/>
-        <v>월</v>
-      </c>
-      <c r="D92" s="52">
-        <f t="shared" ref="D92:E98" si="107">Q92+AD92</f>
-        <v>0</v>
-      </c>
-      <c r="E92" s="52">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="F92" s="55">
-        <f t="shared" ref="F92:F98" si="108">IF(ISERROR(E92/D92),,E92/D92)</f>
-        <v>0</v>
-      </c>
-      <c r="G92" s="52">
-        <f t="shared" ref="G92:G98" si="109">IF(ISERROR(H92/E92),,H92/E92)</f>
-        <v>0</v>
-      </c>
-      <c r="H92" s="52">
-        <f t="shared" ref="H92:J98" si="110">U92+AH92</f>
-        <v>0</v>
-      </c>
-      <c r="I92" s="52">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="52">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="K92" s="82">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L92" s="52">
-        <f t="shared" ref="L92:L98" si="111">IF(ISERROR(H92/SUM(I92:I92)),,H92/SUM(I92:I92))</f>
-        <v>0</v>
-      </c>
-      <c r="M92" s="83">
-        <f t="shared" ref="M92:M98" si="112">IF(ISERROR(J92/H92),,J92/H92)</f>
-        <v>0</v>
-      </c>
-      <c r="O92" s="81">
-        <f t="shared" ref="O92:P98" si="113">B92</f>
-        <v>45656</v>
-      </c>
-      <c r="P92" s="81" t="str">
-        <f t="shared" si="113"/>
-        <v>월</v>
-      </c>
-      <c r="Q92" s="52">
-        <f t="shared" ref="Q92:R96" si="114">SUMIFS(AQ:AQ,$AO:$AO,$A92,$AP:$AP,"모바일")</f>
-        <v>0</v>
-      </c>
-      <c r="R92" s="52">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="S92" s="55">
-        <f t="shared" ref="S92:S98" si="115">IF(ISERROR(R92/Q92),,R92/Q92)</f>
-        <v>0</v>
-      </c>
-      <c r="T92" s="52">
-        <f t="shared" ref="T92:T98" si="116">IF(ISERROR(U92/R92),,U92/R92)</f>
-        <v>0</v>
-      </c>
-      <c r="U92" s="52">
-        <f t="shared" ref="U92:W96" si="117">SUMIFS(AU:AU,$AO:$AO,$A92,$AP:$AP,"모바일")</f>
-        <v>0</v>
-      </c>
-      <c r="V92" s="52">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="W92" s="52">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="X92" s="82">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="Y92" s="52">
-        <f t="shared" ref="Y92:Y98" si="118">IF(ISERROR(U92/SUM(V92:V92)),,U92/SUM(V92:V92))</f>
-        <v>0</v>
-      </c>
-      <c r="Z92" s="82">
-        <f t="shared" ref="Z92:Z98" si="119">IF(ISERROR(W92/U92),,W92/U92)</f>
-        <v>0</v>
-      </c>
-      <c r="AB92" s="81">
-        <f t="shared" ref="AB92:AC98" si="120">O92</f>
-        <v>45656</v>
-      </c>
-      <c r="AC92" s="81" t="str">
-        <f t="shared" si="120"/>
-        <v>월</v>
-      </c>
-      <c r="AD92" s="52">
-        <f t="shared" ref="AD92:AE96" si="121">SUMIFS(AQ:AQ,$AO:$AO,$A92,$AP:$AP,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="AE92" s="52">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="AF92" s="55">
-        <f t="shared" ref="AF92:AF98" si="122">IF(ISERROR(AE92/AD92),,AE92/AD92)</f>
-        <v>0</v>
-      </c>
-      <c r="AG92" s="52">
-        <f t="shared" ref="AG92:AG98" si="123">IF(ISERROR(AH92/AE92),,AH92/AE92)</f>
-        <v>0</v>
-      </c>
-      <c r="AH92" s="52">
-        <f t="shared" ref="AH92:AJ96" si="124">SUMIFS(AU:AU,$AO:$AO,$A92,$AP:$AP,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="AI92" s="52">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AJ92" s="52">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AK92" s="82">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="AL92" s="52">
-        <f t="shared" ref="AL92:AL98" si="125">IF(ISERROR(AH92/SUM(AI92:AI92)),,AH92/SUM(AI92:AI92))</f>
-        <v>0</v>
-      </c>
-      <c r="AM92" s="82">
-        <f t="shared" ref="AM92:AM98" si="126">IF(ISERROR(AJ92/AH92),,AJ92/AH92)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A93" s="103" t="s">
-        <v>209</v>
-      </c>
-      <c r="B93" s="81">
-        <v>45657</v>
-      </c>
-      <c r="C93" s="81" t="str">
-        <f t="shared" si="88"/>
-        <v>화</v>
-      </c>
-      <c r="D93" s="52">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="52">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="F93" s="55">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="52">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="H93" s="52">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="I93" s="52">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="52">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="K93" s="82">
-        <f t="shared" ref="K93:K98" si="127">IF(ISERROR(SUM(I93:I93)/E93),,SUM(I93:I93)/E93)</f>
-        <v>0</v>
-      </c>
-      <c r="L93" s="52">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="M93" s="83">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="O93" s="81">
-        <f t="shared" si="113"/>
-        <v>45657</v>
-      </c>
-      <c r="P93" s="81" t="str">
-        <f t="shared" si="113"/>
-        <v>화</v>
-      </c>
-      <c r="Q93" s="52">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="R93" s="52">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="S93" s="55">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="T93" s="52">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="U93" s="52">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="V93" s="52">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="W93" s="52">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="X93" s="82">
-        <f t="shared" ref="X93:X98" si="128">IF(ISERROR(SUM(V93:V93)/R93),,SUM(V93:V93)/R93)</f>
-        <v>0</v>
-      </c>
-      <c r="Y93" s="52">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="Z93" s="82">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="AB93" s="81">
-        <f t="shared" si="120"/>
-        <v>45657</v>
-      </c>
-      <c r="AC93" s="81" t="str">
-        <f t="shared" si="120"/>
-        <v>화</v>
-      </c>
-      <c r="AD93" s="52">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="AE93" s="52">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="AF93" s="55">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AG93" s="52">
-        <f t="shared" si="123"/>
-        <v>0</v>
-      </c>
-      <c r="AH93" s="52">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AI93" s="52">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AJ93" s="52">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AK93" s="82">
-        <f t="shared" ref="AK93:AK98" si="129">IF(ISERROR(SUM(AI93:AI93)/AE93),,SUM(AI93:AI93)/AE93)</f>
-        <v>0</v>
-      </c>
-      <c r="AL93" s="52">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="AM93" s="82">
-        <f t="shared" si="126"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A94" s="103" t="s">
-        <v>210</v>
-      </c>
-      <c r="B94" s="81">
-        <v>45658</v>
-      </c>
-      <c r="C94" s="81" t="str">
-        <f t="shared" ref="C94:C98" si="130">IF(B94="","",CHOOSE(WEEKDAY(B94,2),"월","화","수","목","금","토","일"))</f>
-        <v>수</v>
-      </c>
-      <c r="D94" s="52">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="52">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="F94" s="55">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="52">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="H94" s="52">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="I94" s="52">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="52">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="K94" s="82">
-        <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="L94" s="52">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="M94" s="83">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="O94" s="81">
-        <f t="shared" si="113"/>
-        <v>45658</v>
-      </c>
-      <c r="P94" s="81" t="str">
-        <f t="shared" si="113"/>
-        <v>수</v>
-      </c>
-      <c r="Q94" s="52">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="R94" s="52">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="S94" s="55">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="T94" s="52">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="U94" s="52">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="V94" s="52">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="W94" s="52">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="X94" s="82">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="Y94" s="52">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="Z94" s="82">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="AB94" s="81">
-        <f t="shared" si="120"/>
-        <v>45658</v>
-      </c>
-      <c r="AC94" s="81" t="str">
-        <f t="shared" si="120"/>
-        <v>수</v>
-      </c>
-      <c r="AD94" s="52">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="AE94" s="52">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="AF94" s="55">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AG94" s="52">
-        <f t="shared" si="123"/>
-        <v>0</v>
-      </c>
-      <c r="AH94" s="52">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AI94" s="52">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AJ94" s="52">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AK94" s="82">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="AL94" s="52">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="AM94" s="82">
-        <f t="shared" si="126"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A95" s="103" t="s">
-        <v>211</v>
-      </c>
-      <c r="B95" s="81">
-        <v>45659</v>
-      </c>
-      <c r="C95" s="81" t="str">
-        <f t="shared" si="130"/>
-        <v>목</v>
-      </c>
-      <c r="D95" s="52">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="52">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="F95" s="55">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="52">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="H95" s="52">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="I95" s="52">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="52">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="K95" s="82">
-        <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="L95" s="52">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="M95" s="83">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="O95" s="81">
-        <f t="shared" si="113"/>
-        <v>45659</v>
-      </c>
-      <c r="P95" s="81" t="str">
-        <f t="shared" si="113"/>
-        <v>목</v>
-      </c>
-      <c r="Q95" s="52">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="R95" s="52">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="S95" s="55">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="T95" s="52">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="U95" s="52">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="V95" s="52">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="W95" s="52">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="X95" s="82">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="Y95" s="52">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="Z95" s="82">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="AB95" s="81">
-        <f t="shared" si="120"/>
-        <v>45659</v>
-      </c>
-      <c r="AC95" s="81" t="str">
-        <f t="shared" si="120"/>
-        <v>목</v>
-      </c>
-      <c r="AD95" s="52">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="AE95" s="52">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="AF95" s="55">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AG95" s="52">
-        <f t="shared" si="123"/>
-        <v>0</v>
-      </c>
-      <c r="AH95" s="52">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AI95" s="52">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AJ95" s="52">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AK95" s="82">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="AL95" s="52">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="AM95" s="82">
-        <f t="shared" si="126"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A96" s="103" t="s">
-        <v>212</v>
-      </c>
-      <c r="B96" s="81">
-        <v>45660</v>
-      </c>
-      <c r="C96" s="81" t="str">
-        <f t="shared" si="130"/>
-        <v>금</v>
-      </c>
-      <c r="D96" s="52">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="52">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="F96" s="55">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="52">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="H96" s="52">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="I96" s="52">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="52">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="K96" s="82">
-        <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="L96" s="52">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="M96" s="83">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="O96" s="81">
-        <f t="shared" si="113"/>
-        <v>45660</v>
-      </c>
-      <c r="P96" s="81" t="str">
-        <f t="shared" si="113"/>
-        <v>금</v>
-      </c>
-      <c r="Q96" s="52">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="R96" s="52">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="S96" s="55">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="T96" s="52">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="U96" s="52">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="V96" s="52">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="W96" s="52">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="X96" s="82">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="Y96" s="52">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="Z96" s="82">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="AB96" s="81">
-        <f t="shared" si="120"/>
-        <v>45660</v>
-      </c>
-      <c r="AC96" s="81" t="str">
-        <f t="shared" si="120"/>
-        <v>금</v>
-      </c>
-      <c r="AD96" s="52">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="AE96" s="52">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="AF96" s="55">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AG96" s="52">
-        <f t="shared" si="123"/>
-        <v>0</v>
-      </c>
-      <c r="AH96" s="52">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AI96" s="52">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AJ96" s="52">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AK96" s="82">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="AL96" s="52">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="AM96" s="82">
-        <f t="shared" si="126"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A97" s="103" t="s">
-        <v>213</v>
-      </c>
-      <c r="B97" s="81">
-        <v>45661</v>
-      </c>
-      <c r="C97" s="81" t="str">
-        <f t="shared" si="130"/>
-        <v>토</v>
-      </c>
-      <c r="D97" s="52">
-        <f>Q97+AD97</f>
-        <v>0</v>
-      </c>
-      <c r="E97" s="52">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="F97" s="55">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="52">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="H97" s="52">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="I97" s="52">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="52">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="K97" s="82">
-        <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="L97" s="52">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="M97" s="83">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="O97" s="81">
-        <f t="shared" si="113"/>
-        <v>45661</v>
-      </c>
-      <c r="P97" s="81" t="str">
-        <f t="shared" si="113"/>
-        <v>토</v>
-      </c>
-      <c r="Q97" s="52">
-        <f>SUMIFS(AQ:AQ,$AO:$AO,$A97,$AP:$AP,"모바일")</f>
-        <v>0</v>
-      </c>
-      <c r="R97" s="52">
-        <f>SUMIFS(AR:AR,$AO:$AO,$A97,$AP:$AP,"모바일")</f>
-        <v>0</v>
-      </c>
-      <c r="S97" s="55">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="T97" s="52">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="U97" s="52">
-        <f>SUMIFS(AU:AU,$AO:$AO,$A97,$AP:$AP,"모바일")</f>
-        <v>0</v>
-      </c>
-      <c r="V97" s="52">
-        <f>SUMIFS(AV:AV,$AO:$AO,$A97,$AP:$AP,"모바일")</f>
-        <v>0</v>
-      </c>
-      <c r="W97" s="52">
-        <f>SUMIFS(AW:AW,$AO:$AO,$A97,$AP:$AP,"모바일")</f>
-        <v>0</v>
-      </c>
-      <c r="X97" s="82">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="Y97" s="52">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="Z97" s="82">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="AB97" s="81">
-        <f t="shared" si="120"/>
-        <v>45661</v>
-      </c>
-      <c r="AC97" s="81" t="str">
-        <f t="shared" si="120"/>
-        <v>토</v>
-      </c>
-      <c r="AD97" s="52">
-        <f>SUMIFS(AQ:AQ,$AO:$AO,$A97,$AP:$AP,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="AE97" s="52">
-        <f>SUMIFS(AR:AR,$AO:$AO,$A97,$AP:$AP,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="AF97" s="55">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AG97" s="52">
-        <f t="shared" si="123"/>
-        <v>0</v>
-      </c>
-      <c r="AH97" s="52">
-        <f>SUMIFS(AU:AU,$AO:$AO,$A97,$AP:$AP,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="AI97" s="52">
-        <f>SUMIFS(AV:AV,$AO:$AO,$A97,$AP:$AP,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ97" s="52">
-        <f>SUMIFS(AW:AW,$AO:$AO,$A97,$AP:$AP,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="AK97" s="82">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="AL97" s="52">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="AM97" s="82">
-        <f t="shared" si="126"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A98" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="B98" s="81">
-        <v>45662</v>
-      </c>
-      <c r="C98" s="81" t="str">
-        <f t="shared" si="130"/>
-        <v>일</v>
-      </c>
-      <c r="D98" s="52">
-        <f t="shared" ref="D98" si="131">Q98+AD98</f>
-        <v>0</v>
-      </c>
-      <c r="E98" s="52">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="F98" s="55">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="52">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="H98" s="52">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="I98" s="52">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="52">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="K98" s="82">
-        <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="L98" s="52">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="M98" s="83">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="O98" s="81">
-        <f t="shared" si="113"/>
-        <v>45662</v>
-      </c>
-      <c r="P98" s="81" t="str">
-        <f t="shared" si="113"/>
-        <v>일</v>
-      </c>
-      <c r="Q98" s="52">
-        <f t="shared" ref="Q98:R98" si="132">SUMIFS(AQ:AQ,$AO:$AO,$A98,$AP:$AP,"모바일")</f>
-        <v>0</v>
-      </c>
-      <c r="R98" s="52">
-        <f t="shared" si="132"/>
-        <v>0</v>
-      </c>
-      <c r="S98" s="55">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="T98" s="52">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="U98" s="52">
-        <f t="shared" ref="U98:W98" si="133">SUMIFS(AU:AU,$AO:$AO,$A98,$AP:$AP,"모바일")</f>
-        <v>0</v>
-      </c>
-      <c r="V98" s="52">
-        <f t="shared" si="133"/>
-        <v>0</v>
-      </c>
-      <c r="W98" s="52">
-        <f t="shared" si="133"/>
-        <v>0</v>
-      </c>
-      <c r="X98" s="82">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="Y98" s="52">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="Z98" s="82">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="AB98" s="81">
-        <f t="shared" si="120"/>
-        <v>45662</v>
-      </c>
-      <c r="AC98" s="81" t="str">
-        <f t="shared" si="120"/>
-        <v>일</v>
-      </c>
-      <c r="AD98" s="52">
-        <f t="shared" ref="AD98:AE98" si="134">SUMIFS(AQ:AQ,$AO:$AO,$A98,$AP:$AP,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="AE98" s="52">
-        <f t="shared" si="134"/>
-        <v>0</v>
-      </c>
-      <c r="AF98" s="55">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AG98" s="52">
-        <f t="shared" si="123"/>
-        <v>0</v>
-      </c>
-      <c r="AH98" s="52">
-        <f t="shared" ref="AH98:AJ98" si="135">SUMIFS(AU:AU,$AO:$AO,$A98,$AP:$AP,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="AI98" s="52">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="AJ98" s="52">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="AK98" s="82">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="AL98" s="52">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="AM98" s="82">
-        <f t="shared" si="126"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B6:C6"/>
@@ -27612,499 +25847,1309 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="124"/>
-      <c r="C61" s="124"/>
-      <c r="D61" s="124"/>
-      <c r="E61" s="124"/>
-      <c r="F61" s="124"/>
-      <c r="G61" s="125"/>
-      <c r="H61" s="125"/>
-      <c r="I61" s="124"/>
-      <c r="J61" s="125"/>
+      <c r="B61" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s" s="148">
+        <v>27</v>
+      </c>
+      <c r="D61" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E61" t="n" s="148">
+        <v>1.97</v>
+      </c>
+      <c r="F61" t="n" s="150">
+        <v>1.7</v>
+      </c>
+      <c r="G61" t="n" s="151">
+        <v>1995.0</v>
+      </c>
+      <c r="H61" t="n" s="151">
+        <v>1995.4</v>
+      </c>
+      <c r="I61" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J61" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="124"/>
-      <c r="C62" s="124"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="124"/>
-      <c r="G62" s="125"/>
-      <c r="H62" s="125"/>
-      <c r="I62" s="124"/>
-      <c r="J62" s="125"/>
+      <c r="B62" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s" s="148">
+        <v>30</v>
+      </c>
+      <c r="D62" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E62" t="n" s="148">
+        <v>1.52</v>
+      </c>
+      <c r="F62" t="n" s="150">
+        <v>1.9</v>
+      </c>
+      <c r="G62" t="n" s="151">
+        <v>7614.0</v>
+      </c>
+      <c r="H62" t="n" s="151">
+        <v>7613.65</v>
+      </c>
+      <c r="I62" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J62" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="124"/>
-      <c r="C63" s="124"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="124"/>
-      <c r="F63" s="124"/>
-      <c r="G63" s="125"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="124"/>
-      <c r="J63" s="125"/>
+      <c r="B63" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C63" t="s" s="148">
+        <v>33</v>
+      </c>
+      <c r="D63" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E63" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F63" t="n" s="150">
+        <v>1.6</v>
+      </c>
+      <c r="G63" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H63" t="n" s="151">
+        <v>2.75</v>
+      </c>
+      <c r="I63" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J63" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="124"/>
-      <c r="C64" s="124"/>
-      <c r="D64" s="124"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="124"/>
-      <c r="G64" s="125"/>
-      <c r="H64" s="125"/>
-      <c r="I64" s="124"/>
-      <c r="J64" s="125"/>
+      <c r="B64" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C64" t="s" s="148">
+        <v>36</v>
+      </c>
+      <c r="D64" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E64" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F64" t="n" s="150">
+        <v>1.9</v>
+      </c>
+      <c r="G64" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H64" t="n" s="151">
+        <v>1.65</v>
+      </c>
+      <c r="I64" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J64" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B65" s="124"/>
-      <c r="C65" s="124"/>
-      <c r="D65" s="124"/>
-      <c r="E65" s="124"/>
-      <c r="F65" s="124"/>
-      <c r="G65" s="125"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="124"/>
-      <c r="J65" s="125"/>
+      <c r="B65" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s" s="148">
+        <v>39</v>
+      </c>
+      <c r="D65" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E65" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F65" t="n" s="150">
+        <v>1.8</v>
+      </c>
+      <c r="G65" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H65" t="n" s="151">
+        <v>1.65</v>
+      </c>
+      <c r="I65" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J65" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="124"/>
-      <c r="C66" s="124"/>
-      <c r="D66" s="124"/>
-      <c r="E66" s="124"/>
-      <c r="F66" s="124"/>
-      <c r="G66" s="125"/>
-      <c r="H66" s="125"/>
-      <c r="I66" s="124"/>
-      <c r="J66" s="125"/>
+      <c r="B66" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s" s="148">
+        <v>42</v>
+      </c>
+      <c r="D66" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E66" t="n" s="148">
+        <v>5.56</v>
+      </c>
+      <c r="F66" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G66" t="n" s="151">
+        <v>89.0</v>
+      </c>
+      <c r="H66" t="n" s="151">
+        <v>88.55</v>
+      </c>
+      <c r="I66" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J66" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="124"/>
-      <c r="C67" s="124"/>
-      <c r="D67" s="124"/>
-      <c r="E67" s="124"/>
-      <c r="F67" s="124"/>
-      <c r="G67" s="125"/>
-      <c r="H67" s="125"/>
-      <c r="I67" s="124"/>
-      <c r="J67" s="125"/>
+      <c r="B67" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C67" t="s" s="148">
+        <v>45</v>
+      </c>
+      <c r="D67" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E67" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F67" t="n" s="150">
+        <v>1.9</v>
+      </c>
+      <c r="G67" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H67" t="n" s="151">
+        <v>4.4</v>
+      </c>
+      <c r="I67" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J67" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B68" s="124"/>
-      <c r="C68" s="124"/>
-      <c r="D68" s="124"/>
-      <c r="E68" s="124"/>
-      <c r="F68" s="124"/>
-      <c r="G68" s="125"/>
-      <c r="H68" s="125"/>
-      <c r="I68" s="124"/>
-      <c r="J68" s="125"/>
+      <c r="B68" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C68" t="s" s="148">
+        <v>48</v>
+      </c>
+      <c r="D68" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E68" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F68" t="n" s="150">
+        <v>1.9</v>
+      </c>
+      <c r="G68" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H68" t="n" s="151">
+        <v>5.5</v>
+      </c>
+      <c r="I68" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J68" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" s="124"/>
-      <c r="C69" s="124"/>
-      <c r="D69" s="124"/>
-      <c r="E69" s="124"/>
-      <c r="F69" s="124"/>
-      <c r="G69" s="125"/>
-      <c r="H69" s="125"/>
-      <c r="I69" s="124"/>
-      <c r="J69" s="125"/>
+      <c r="B69" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s" s="148">
+        <v>50</v>
+      </c>
+      <c r="D69" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E69" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F69" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G69" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H69" t="n" s="151">
+        <v>6.05</v>
+      </c>
+      <c r="I69" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J69" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B70" s="124"/>
-      <c r="C70" s="124"/>
-      <c r="D70" s="124"/>
-      <c r="E70" s="124"/>
-      <c r="F70" s="124"/>
-      <c r="G70" s="125"/>
-      <c r="H70" s="125"/>
-      <c r="I70" s="124"/>
-      <c r="J70" s="125"/>
+      <c r="B70" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s" s="148">
+        <v>52</v>
+      </c>
+      <c r="D70" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E70" t="n" s="148">
+        <v>0.63</v>
+      </c>
+      <c r="F70" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G70" t="n" s="151">
+        <v>2039.0</v>
+      </c>
+      <c r="H70" t="n" s="151">
+        <v>2038.85</v>
+      </c>
+      <c r="I70" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J70" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B71" s="124"/>
-      <c r="C71" s="124"/>
-      <c r="D71" s="124"/>
-      <c r="E71" s="124"/>
-      <c r="F71" s="124"/>
-      <c r="G71" s="125"/>
-      <c r="H71" s="125"/>
-      <c r="I71" s="124"/>
-      <c r="J71" s="125"/>
+      <c r="B71" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s" s="148">
+        <v>54</v>
+      </c>
+      <c r="D71" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E71" t="n" s="148">
+        <v>1.11</v>
+      </c>
+      <c r="F71" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G71" t="n" s="151">
+        <v>3879.0</v>
+      </c>
+      <c r="H71" t="n" s="151">
+        <v>7758.3</v>
+      </c>
+      <c r="I71" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J71" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B72" s="124"/>
-      <c r="C72" s="124"/>
-      <c r="D72" s="124"/>
-      <c r="E72" s="124"/>
-      <c r="F72" s="124"/>
-      <c r="G72" s="125"/>
-      <c r="H72" s="125"/>
-      <c r="I72" s="124"/>
-      <c r="J72" s="125"/>
+      <c r="B72" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C72" t="s" s="148">
+        <v>56</v>
+      </c>
+      <c r="D72" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E72" t="n" s="148">
+        <v>1.2</v>
+      </c>
+      <c r="F72" t="n" s="150">
+        <v>2.1</v>
+      </c>
+      <c r="G72" t="n" s="151">
+        <v>2290.0</v>
+      </c>
+      <c r="H72" t="n" s="151">
+        <v>4580.4</v>
+      </c>
+      <c r="I72" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J72" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="124"/>
-      <c r="C73" s="124"/>
-      <c r="D73" s="124"/>
-      <c r="E73" s="124"/>
-      <c r="F73" s="124"/>
-      <c r="G73" s="125"/>
-      <c r="H73" s="125"/>
-      <c r="I73" s="124"/>
-      <c r="J73" s="125"/>
+      <c r="B73" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C73" t="s" s="148">
+        <v>28</v>
+      </c>
+      <c r="D73" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E73" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F73" t="n" s="150">
+        <v>2.3</v>
+      </c>
+      <c r="G73" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H73" t="n" s="151">
+        <v>7.7</v>
+      </c>
+      <c r="I73" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J73" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B74" s="124"/>
-      <c r="C74" s="124"/>
-      <c r="D74" s="124"/>
-      <c r="E74" s="124"/>
-      <c r="F74" s="124"/>
-      <c r="G74" s="125"/>
-      <c r="H74" s="125"/>
-      <c r="I74" s="124"/>
-      <c r="J74" s="125"/>
+      <c r="B74" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C74" t="s" s="148">
+        <v>31</v>
+      </c>
+      <c r="D74" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E74" t="n" s="148">
+        <v>1.25</v>
+      </c>
+      <c r="F74" t="n" s="150">
+        <v>2.5</v>
+      </c>
+      <c r="G74" t="n" s="151">
+        <v>2399.0</v>
+      </c>
+      <c r="H74" t="n" s="151">
+        <v>4797.65</v>
+      </c>
+      <c r="I74" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J74" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="124"/>
-      <c r="C75" s="124"/>
-      <c r="D75" s="124"/>
-      <c r="E75" s="124"/>
-      <c r="F75" s="124"/>
-      <c r="G75" s="125"/>
-      <c r="H75" s="125"/>
-      <c r="I75" s="124"/>
-      <c r="J75" s="125"/>
+      <c r="B75" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s" s="148">
+        <v>34</v>
+      </c>
+      <c r="D75" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E75" t="n" s="148">
+        <v>0.54</v>
+      </c>
+      <c r="F75" t="n" s="150">
+        <v>2.6</v>
+      </c>
+      <c r="G75" t="n" s="151">
+        <v>2291.0</v>
+      </c>
+      <c r="H75" t="n" s="151">
+        <v>2291.3</v>
+      </c>
+      <c r="I75" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J75" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="124"/>
-      <c r="C76" s="124"/>
-      <c r="D76" s="124"/>
-      <c r="E76" s="124"/>
-      <c r="F76" s="124"/>
-      <c r="G76" s="125"/>
-      <c r="H76" s="125"/>
-      <c r="I76" s="124"/>
-      <c r="J76" s="125"/>
+      <c r="B76" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C76" t="s" s="148">
+        <v>37</v>
+      </c>
+      <c r="D76" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E76" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F76" t="n" s="150">
+        <v>2.6</v>
+      </c>
+      <c r="G76" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H76" t="n" s="151">
+        <v>1.65</v>
+      </c>
+      <c r="I76" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J76" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="124"/>
-      <c r="C77" s="124"/>
-      <c r="D77" s="124"/>
-      <c r="E77" s="124"/>
-      <c r="F77" s="124"/>
-      <c r="G77" s="125"/>
-      <c r="H77" s="125"/>
-      <c r="I77" s="124"/>
-      <c r="J77" s="125"/>
+      <c r="B77" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C77" t="s" s="148">
+        <v>40</v>
+      </c>
+      <c r="D77" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E77" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F77" t="n" s="150">
+        <v>2.7</v>
+      </c>
+      <c r="G77" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H77" t="n" s="151">
+        <v>3.85</v>
+      </c>
+      <c r="I77" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J77" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B78" s="124"/>
-      <c r="C78" s="124"/>
-      <c r="D78" s="124"/>
-      <c r="E78" s="124"/>
-      <c r="F78" s="124"/>
-      <c r="G78" s="125"/>
-      <c r="H78" s="125"/>
-      <c r="I78" s="124"/>
-      <c r="J78" s="125"/>
+      <c r="B78" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C78" t="s" s="148">
+        <v>43</v>
+      </c>
+      <c r="D78" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E78" t="n" s="148">
+        <v>0.99</v>
+      </c>
+      <c r="F78" t="n" s="150">
+        <v>2.7</v>
+      </c>
+      <c r="G78" t="n" s="151">
+        <v>1383.0</v>
+      </c>
+      <c r="H78" t="n" s="151">
+        <v>2765.95</v>
+      </c>
+      <c r="I78" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J78" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B79" s="124"/>
-      <c r="C79" s="124"/>
-      <c r="D79" s="124"/>
-      <c r="E79" s="124"/>
-      <c r="F79" s="124"/>
-      <c r="G79" s="125"/>
-      <c r="H79" s="125"/>
-      <c r="I79" s="124"/>
-      <c r="J79" s="125"/>
+      <c r="B79" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C79" t="s" s="148">
+        <v>46</v>
+      </c>
+      <c r="D79" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E79" t="n" s="148">
+        <v>1.2</v>
+      </c>
+      <c r="F79" t="n" s="150">
+        <v>2.4</v>
+      </c>
+      <c r="G79" t="n" s="151">
+        <v>1361.0</v>
+      </c>
+      <c r="H79" t="n" s="151">
+        <v>2722.5</v>
+      </c>
+      <c r="I79" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J79" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B80" s="124"/>
-      <c r="C80" s="124"/>
-      <c r="D80" s="124"/>
-      <c r="E80" s="124"/>
-      <c r="F80" s="124"/>
-      <c r="G80" s="125"/>
-      <c r="H80" s="125"/>
-      <c r="I80" s="124"/>
-      <c r="J80" s="125"/>
+      <c r="B80" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C80" t="s" s="148">
+        <v>49</v>
+      </c>
+      <c r="D80" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E80" t="n" s="148">
+        <v>0.79</v>
+      </c>
+      <c r="F80" t="n" s="150">
+        <v>2.5</v>
+      </c>
+      <c r="G80" t="n" s="151">
+        <v>2185.0</v>
+      </c>
+      <c r="H80" t="n" s="151">
+        <v>2185.15</v>
+      </c>
+      <c r="I80" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J80" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B81" s="124"/>
-      <c r="C81" s="124"/>
-      <c r="D81" s="124"/>
-      <c r="E81" s="124"/>
-      <c r="F81" s="124"/>
-      <c r="G81" s="125"/>
-      <c r="H81" s="125"/>
-      <c r="I81" s="124"/>
-      <c r="J81" s="125"/>
+      <c r="B81" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C81" t="s" s="148">
+        <v>51</v>
+      </c>
+      <c r="D81" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E81" t="n" s="148">
+        <v>2.33</v>
+      </c>
+      <c r="F81" t="n" s="150">
+        <v>2.3</v>
+      </c>
+      <c r="G81" t="n" s="151">
+        <v>5018.0</v>
+      </c>
+      <c r="H81" t="n" s="151">
+        <v>5017.65</v>
+      </c>
+      <c r="I81" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J81" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" s="124"/>
-      <c r="C82" s="124"/>
-      <c r="D82" s="124"/>
-      <c r="E82" s="124"/>
-      <c r="F82" s="124"/>
-      <c r="G82" s="125"/>
-      <c r="H82" s="125"/>
-      <c r="I82" s="124"/>
-      <c r="J82" s="125"/>
+      <c r="B82" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C82" t="s" s="148">
+        <v>27</v>
+      </c>
+      <c r="D82" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E82" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F82" t="n" s="150">
+        <v>2.1</v>
+      </c>
+      <c r="G82" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H82" t="n" s="151">
+        <v>4.4</v>
+      </c>
+      <c r="I82" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J82" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
-      <c r="D83" s="124"/>
-      <c r="E83" s="124"/>
-      <c r="F83" s="124"/>
-      <c r="G83" s="125"/>
-      <c r="H83" s="125"/>
-      <c r="I83" s="124"/>
-      <c r="J83" s="125"/>
+      <c r="B83" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C83" t="s" s="148">
+        <v>30</v>
+      </c>
+      <c r="D83" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E83" t="n" s="148">
+        <v>2.05</v>
+      </c>
+      <c r="F83" t="n" s="150">
+        <v>2.3</v>
+      </c>
+      <c r="G83" t="n" s="151">
+        <v>3456.0</v>
+      </c>
+      <c r="H83" t="n" s="151">
+        <v>3455.65</v>
+      </c>
+      <c r="I83" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J83" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B84" s="124"/>
-      <c r="C84" s="124"/>
-      <c r="D84" s="124"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="124"/>
-      <c r="G84" s="125"/>
-      <c r="H84" s="125"/>
-      <c r="I84" s="124"/>
-      <c r="J84" s="125"/>
+      <c r="B84" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C84" t="s" s="148">
+        <v>33</v>
+      </c>
+      <c r="D84" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E84" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F84" t="n" s="150">
+        <v>2.5</v>
+      </c>
+      <c r="G84" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H84" t="n" s="151">
+        <v>1.1</v>
+      </c>
+      <c r="I84" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J84" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B85" s="124"/>
-      <c r="C85" s="124"/>
-      <c r="D85" s="124"/>
-      <c r="E85" s="124"/>
-      <c r="F85" s="124"/>
-      <c r="G85" s="125"/>
-      <c r="H85" s="125"/>
-      <c r="I85" s="124"/>
-      <c r="J85" s="125"/>
+      <c r="B85" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C85" t="s" s="148">
+        <v>36</v>
+      </c>
+      <c r="D85" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E85" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F85" t="n" s="150">
+        <v>2.3</v>
+      </c>
+      <c r="G85" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H85" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="I85" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J85" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B86" s="124"/>
-      <c r="C86" s="124"/>
-      <c r="D86" s="124"/>
-      <c r="E86" s="124"/>
-      <c r="F86" s="124"/>
-      <c r="G86" s="125"/>
-      <c r="H86" s="125"/>
-      <c r="I86" s="124"/>
-      <c r="J86" s="125"/>
+      <c r="B86" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C86" t="s" s="148">
+        <v>39</v>
+      </c>
+      <c r="D86" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E86" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F86" t="n" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="G86" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H86" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="I86" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J86" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B87" s="124"/>
-      <c r="C87" s="124"/>
-      <c r="D87" s="124"/>
-      <c r="E87" s="124"/>
-      <c r="F87" s="124"/>
-      <c r="G87" s="125"/>
-      <c r="H87" s="125"/>
-      <c r="I87" s="124"/>
-      <c r="J87" s="125"/>
+      <c r="B87" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C87" t="s" s="148">
+        <v>42</v>
+      </c>
+      <c r="D87" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E87" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F87" t="n" s="150">
+        <v>2.1</v>
+      </c>
+      <c r="G87" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H87" t="n" s="151">
+        <v>2.2</v>
+      </c>
+      <c r="I87" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J87" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B88" s="124"/>
-      <c r="C88" s="124"/>
-      <c r="D88" s="124"/>
-      <c r="E88" s="124"/>
-      <c r="F88" s="124"/>
-      <c r="G88" s="125"/>
-      <c r="H88" s="125"/>
-      <c r="I88" s="124"/>
-      <c r="J88" s="125"/>
+      <c r="B88" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C88" t="s" s="148">
+        <v>45</v>
+      </c>
+      <c r="D88" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E88" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F88" t="n" s="150">
+        <v>1.9</v>
+      </c>
+      <c r="G88" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H88" t="n" s="151">
+        <v>0.55</v>
+      </c>
+      <c r="I88" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J88" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B89" s="124"/>
-      <c r="C89" s="124"/>
-      <c r="D89" s="124"/>
-      <c r="E89" s="124"/>
-      <c r="F89" s="124"/>
-      <c r="G89" s="125"/>
-      <c r="H89" s="125"/>
-      <c r="I89" s="124"/>
-      <c r="J89" s="125"/>
+      <c r="B89" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C89" t="s" s="148">
+        <v>48</v>
+      </c>
+      <c r="D89" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E89" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F89" t="n" s="150">
+        <v>1.9</v>
+      </c>
+      <c r="G89" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H89" t="n" s="151">
+        <v>3.85</v>
+      </c>
+      <c r="I89" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J89" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B90" s="124"/>
-      <c r="C90" s="124"/>
-      <c r="D90" s="124"/>
-      <c r="E90" s="124"/>
-      <c r="F90" s="124"/>
-      <c r="G90" s="125"/>
-      <c r="H90" s="125"/>
-      <c r="I90" s="124"/>
-      <c r="J90" s="125"/>
+      <c r="B90" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C90" t="s" s="148">
+        <v>50</v>
+      </c>
+      <c r="D90" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E90" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F90" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G90" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H90" t="n" s="151">
+        <v>5.5</v>
+      </c>
+      <c r="I90" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J90" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B91" s="124"/>
-      <c r="C91" s="124"/>
-      <c r="D91" s="124"/>
-      <c r="E91" s="124"/>
-      <c r="F91" s="124"/>
-      <c r="G91" s="125"/>
-      <c r="H91" s="125"/>
-      <c r="I91" s="124"/>
-      <c r="J91" s="125"/>
+      <c r="B91" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C91" t="s" s="148">
+        <v>52</v>
+      </c>
+      <c r="D91" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E91" t="n" s="148">
+        <v>1.12</v>
+      </c>
+      <c r="F91" t="n" s="150">
+        <v>2.3</v>
+      </c>
+      <c r="G91" t="n" s="151">
+        <v>2149.0</v>
+      </c>
+      <c r="H91" t="n" s="151">
+        <v>2148.85</v>
+      </c>
+      <c r="I91" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J91" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B92" s="124"/>
-      <c r="C92" s="124"/>
-      <c r="D92" s="124"/>
-      <c r="E92" s="124"/>
-      <c r="F92" s="124"/>
-      <c r="G92" s="125"/>
-      <c r="H92" s="125"/>
-      <c r="I92" s="124"/>
-      <c r="J92" s="125"/>
+      <c r="B92" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C92" t="s" s="148">
+        <v>54</v>
+      </c>
+      <c r="D92" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E92" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F92" t="n" s="150">
+        <v>2.1</v>
+      </c>
+      <c r="G92" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H92" t="n" s="151">
+        <v>5.5</v>
+      </c>
+      <c r="I92" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J92" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B93" s="124"/>
-      <c r="C93" s="124"/>
-      <c r="D93" s="124"/>
-      <c r="E93" s="124"/>
-      <c r="F93" s="124"/>
-      <c r="G93" s="125"/>
-      <c r="H93" s="125"/>
-      <c r="I93" s="124"/>
-      <c r="J93" s="125"/>
+      <c r="B93" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C93" t="s" s="148">
+        <v>56</v>
+      </c>
+      <c r="D93" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E93" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F93" t="n" s="150">
+        <v>2.1</v>
+      </c>
+      <c r="G93" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H93" t="n" s="151">
+        <v>2.2</v>
+      </c>
+      <c r="I93" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J93" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B94" s="124"/>
-      <c r="C94" s="124"/>
-      <c r="D94" s="124"/>
-      <c r="E94" s="124"/>
-      <c r="F94" s="124"/>
-      <c r="G94" s="125"/>
-      <c r="H94" s="125"/>
-      <c r="I94" s="124"/>
-      <c r="J94" s="125"/>
+      <c r="B94" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C94" t="s" s="148">
+        <v>28</v>
+      </c>
+      <c r="D94" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E94" t="n" s="148">
+        <v>0.87</v>
+      </c>
+      <c r="F94" t="n" s="150">
+        <v>2.3</v>
+      </c>
+      <c r="G94" t="n" s="151">
+        <v>11741.0</v>
+      </c>
+      <c r="H94" t="n" s="151">
+        <v>11741.4</v>
+      </c>
+      <c r="I94" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J94" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B95" s="124"/>
-      <c r="C95" s="124"/>
-      <c r="D95" s="124"/>
-      <c r="E95" s="124"/>
-      <c r="F95" s="124"/>
-      <c r="G95" s="125"/>
-      <c r="H95" s="125"/>
-      <c r="I95" s="124"/>
-      <c r="J95" s="125"/>
+      <c r="B95" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C95" t="s" s="148">
+        <v>31</v>
+      </c>
+      <c r="D95" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E95" t="n" s="148">
+        <v>2.76</v>
+      </c>
+      <c r="F95" t="n" s="150">
+        <v>2.2</v>
+      </c>
+      <c r="G95" t="n" s="151">
+        <v>2906.0</v>
+      </c>
+      <c r="H95" t="n" s="151">
+        <v>8718.05</v>
+      </c>
+      <c r="I95" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J95" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B96" s="124"/>
-      <c r="C96" s="124"/>
-      <c r="D96" s="124"/>
-      <c r="E96" s="124"/>
-      <c r="F96" s="124"/>
-      <c r="G96" s="125"/>
-      <c r="H96" s="125"/>
-      <c r="I96" s="124"/>
-      <c r="J96" s="125"/>
+      <c r="B96" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C96" t="s" s="148">
+        <v>34</v>
+      </c>
+      <c r="D96" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E96" t="n" s="148">
+        <v>1.64</v>
+      </c>
+      <c r="F96" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G96" t="n" s="151">
+        <v>3075.0</v>
+      </c>
+      <c r="H96" t="n" s="151">
+        <v>6150.1</v>
+      </c>
+      <c r="I96" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J96" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B97" s="124"/>
-      <c r="C97" s="124"/>
-      <c r="D97" s="124"/>
-      <c r="E97" s="124"/>
-      <c r="F97" s="124"/>
-      <c r="G97" s="125"/>
-      <c r="H97" s="125"/>
-      <c r="I97" s="124"/>
-      <c r="J97" s="125"/>
+      <c r="B97" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C97" t="s" s="148">
+        <v>37</v>
+      </c>
+      <c r="D97" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E97" t="n" s="148">
+        <v>0.79</v>
+      </c>
+      <c r="F97" t="n" s="150">
+        <v>2.1</v>
+      </c>
+      <c r="G97" t="n" s="151">
+        <v>1258.0</v>
+      </c>
+      <c r="H97" t="n" s="151">
+        <v>1257.85</v>
+      </c>
+      <c r="I97" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J97" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B98" s="124"/>
-      <c r="C98" s="124"/>
-      <c r="D98" s="124"/>
-      <c r="E98" s="124"/>
-      <c r="F98" s="124"/>
-      <c r="G98" s="125"/>
-      <c r="H98" s="125"/>
-      <c r="I98" s="124"/>
-      <c r="J98" s="125"/>
+      <c r="B98" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C98" t="s" s="148">
+        <v>40</v>
+      </c>
+      <c r="D98" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E98" t="n" s="148">
+        <v>0.75</v>
+      </c>
+      <c r="F98" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G98" t="n" s="151">
+        <v>3086.0</v>
+      </c>
+      <c r="H98" t="n" s="151">
+        <v>3085.5</v>
+      </c>
+      <c r="I98" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J98" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B99" s="124"/>
-      <c r="C99" s="124"/>
-      <c r="D99" s="124"/>
-      <c r="E99" s="124"/>
-      <c r="F99" s="124"/>
-      <c r="G99" s="125"/>
-      <c r="H99" s="125"/>
-      <c r="I99" s="124"/>
-      <c r="J99" s="125"/>
+      <c r="B99" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C99" t="s" s="148">
+        <v>43</v>
+      </c>
+      <c r="D99" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E99" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F99" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G99" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H99" t="n" s="151">
+        <v>6.6</v>
+      </c>
+      <c r="I99" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J99" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B100" s="124"/>
-      <c r="C100" s="124"/>
-      <c r="D100" s="124"/>
-      <c r="E100" s="124"/>
-      <c r="F100" s="124"/>
-      <c r="G100" s="125"/>
-      <c r="H100" s="125"/>
-      <c r="I100" s="124"/>
-      <c r="J100" s="125"/>
+      <c r="B100" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C100" t="s" s="148">
+        <v>46</v>
+      </c>
+      <c r="D100" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E100" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F100" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G100" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H100" t="n" s="151">
+        <v>2.75</v>
+      </c>
+      <c r="I100" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J100" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B101" s="124"/>
-      <c r="C101" s="124"/>
-      <c r="D101" s="124"/>
-      <c r="E101" s="124"/>
-      <c r="F101" s="124"/>
-      <c r="G101" s="125"/>
-      <c r="H101" s="125"/>
-      <c r="I101" s="124"/>
-      <c r="J101" s="125"/>
+      <c r="B101" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C101" t="s" s="148">
+        <v>49</v>
+      </c>
+      <c r="D101" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E101" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F101" t="n" s="150">
+        <v>1.9</v>
+      </c>
+      <c r="G101" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H101" t="n" s="151">
+        <v>4.4</v>
+      </c>
+      <c r="I101" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J101" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B102" s="124"/>
-      <c r="C102" s="124"/>
-      <c r="D102" s="124"/>
-      <c r="E102" s="124"/>
-      <c r="F102" s="124"/>
-      <c r="G102" s="125"/>
-      <c r="H102" s="125"/>
-      <c r="I102" s="124"/>
-      <c r="J102" s="125"/>
+      <c r="B102" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C102" t="s" s="148">
+        <v>51</v>
+      </c>
+      <c r="D102" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E102" t="n" s="148">
+        <v>1.22</v>
+      </c>
+      <c r="F102" t="n" s="150">
+        <v>1.8</v>
+      </c>
+      <c r="G102" t="n" s="151">
+        <v>4944.0</v>
+      </c>
+      <c r="H102" t="n" s="151">
+        <v>4943.95</v>
+      </c>
+      <c r="I102" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J102" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B103" s="124"/>
-      <c r="C103" s="124"/>
-      <c r="D103" s="124"/>
-      <c r="E103" s="124"/>
-      <c r="F103" s="124"/>
-      <c r="G103" s="125"/>
-      <c r="H103" s="125"/>
-      <c r="I103" s="124"/>
-      <c r="J103" s="125"/>
+      <c r="B103" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C103" t="s" s="148">
+        <v>53</v>
+      </c>
+      <c r="D103" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E103" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F103" t="n" s="150">
+        <v>1.0</v>
+      </c>
+      <c r="G103" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H103" t="n" s="151">
+        <v>7.7</v>
+      </c>
+      <c r="I103" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J103" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B104" s="124"/>
-      <c r="C104" s="124"/>
-      <c r="D104" s="124"/>
-      <c r="E104" s="124"/>
-      <c r="F104" s="124"/>
-      <c r="G104" s="125"/>
-      <c r="H104" s="125"/>
-      <c r="I104" s="124"/>
-      <c r="J104" s="125"/>
+      <c r="B104" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C104" t="s" s="148">
+        <v>55</v>
+      </c>
+      <c r="D104" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E104" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F104" t="n" s="150">
+        <v>1.0</v>
+      </c>
+      <c r="G104" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H104" t="n" s="151">
+        <v>8.25</v>
+      </c>
+      <c r="I104" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J104" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B105" s="124"/>
-      <c r="C105" s="124"/>
-      <c r="D105" s="124"/>
-      <c r="E105" s="124"/>
-      <c r="F105" s="124"/>
-      <c r="G105" s="125"/>
-      <c r="H105" s="125"/>
-      <c r="I105" s="124"/>
-      <c r="J105" s="125"/>
+      <c r="B105" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C105" t="s" s="148">
+        <v>57</v>
+      </c>
+      <c r="D105" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E105" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F105" t="n" s="150">
+        <v>1.0</v>
+      </c>
+      <c r="G105" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H105" t="n" s="151">
+        <v>1.65</v>
+      </c>
+      <c r="I105" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J105" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B106" s="124"/>
